--- a/test/testdata3.xlsx
+++ b/test/testdata3.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="231">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">INVL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROM</t>
   </si>
   <si>
     <t xml:space="preserve">Bank Indonesia Aceh</t>
@@ -719,16 +722,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="General"/>
+    <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -750,6 +754,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -823,7 +833,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -848,7 +858,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -856,15 +866,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,13 +1045,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -1091,16 +1105,19 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>95.3168672</v>
@@ -1134,16 +1151,20 @@
       <c r="M2" s="4" t="n">
         <v>3915</v>
       </c>
+      <c r="N2" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F2/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>97.1411612</v>
@@ -1177,16 +1198,20 @@
       <c r="M3" s="0" t="n">
         <v>6192</v>
       </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F3/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.6770692</v>
@@ -1220,16 +1245,20 @@
       <c r="M4" s="0" t="n">
         <v>7170</v>
       </c>
+      <c r="N4" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F4/5000) * 5</f>
+        <v>35</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>98.77534</v>
@@ -1263,16 +1292,20 @@
       <c r="M5" s="0" t="n">
         <v>4411</v>
       </c>
+      <c r="N5" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F5/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>99.0582705</v>
@@ -1306,16 +1339,20 @@
       <c r="M6" s="0" t="n">
         <v>4948</v>
       </c>
+      <c r="N6" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F6/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100.3622993</v>
@@ -1349,16 +1386,20 @@
       <c r="M7" s="0" t="n">
         <v>9355</v>
       </c>
+      <c r="N7" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F7/5000) * 5</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>101.446956</v>
@@ -1392,16 +1433,20 @@
       <c r="M8" s="0" t="n">
         <v>17015</v>
       </c>
+      <c r="N8" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F8/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>102.253207</v>
@@ -1435,16 +1480,20 @@
       <c r="M9" s="0" t="n">
         <v>4443</v>
       </c>
+      <c r="N9" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F9/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>103.5828587</v>
@@ -1478,16 +1527,20 @@
       <c r="M10" s="0" t="n">
         <v>7313</v>
       </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F10/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>104.0558977</v>
@@ -1521,16 +1574,20 @@
       <c r="M11" s="0" t="n">
         <v>5114</v>
       </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F11/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>104.7544829</v>
@@ -1564,16 +1621,20 @@
       <c r="M12" s="0" t="n">
         <v>12579</v>
       </c>
+      <c r="N12" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F12/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>105.267406</v>
@@ -1607,16 +1668,20 @@
       <c r="M13" s="0" t="n">
         <v>11641</v>
       </c>
+      <c r="N13" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F13/5000) * 5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>106.1498068</v>
@@ -1650,16 +1715,20 @@
       <c r="M14" s="0" t="n">
         <v>7820</v>
       </c>
+      <c r="N14" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F14/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>106.1570726</v>
@@ -1693,16 +1762,20 @@
       <c r="M15" s="0" t="n">
         <v>5717</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F15/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>106.8247514</v>
@@ -1720,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">L16</f>
@@ -1736,16 +1809,20 @@
       <c r="M16" s="0" t="n">
         <v>495618</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F16/5000) * 5</f>
+        <v>10000</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>107.6092794</v>
@@ -1779,16 +1856,20 @@
       <c r="M17" s="0" t="n">
         <v>21851</v>
       </c>
+      <c r="N17" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F17/5000) * 5</f>
+        <v>75</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>108.2257789</v>
@@ -1822,16 +1903,20 @@
       <c r="M18" s="0" t="n">
         <v>4978</v>
       </c>
+      <c r="N18" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F18/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>108.5721852</v>
@@ -1865,16 +1950,20 @@
       <c r="M19" s="0" t="n">
         <v>6465</v>
       </c>
+      <c r="N19" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F19/5000) * 5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>109.1288435</v>
@@ -1908,16 +1997,20 @@
       <c r="M20" s="0" t="n">
         <v>5741</v>
       </c>
+      <c r="N20" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F20/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>109.2379672</v>
@@ -1951,16 +2044,20 @@
       <c r="M21" s="0" t="n">
         <v>7020</v>
       </c>
+      <c r="N21" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F21/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>109.35379</v>
@@ -1994,16 +2091,20 @@
       <c r="M22" s="0" t="n">
         <v>6447</v>
       </c>
+      <c r="N22" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F22/5000) * 5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>110.3659379</v>
@@ -2037,16 +2138,20 @@
       <c r="M23" s="0" t="n">
         <v>9606</v>
       </c>
+      <c r="N23" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F23/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>110.4226331</v>
@@ -2080,16 +2185,20 @@
       <c r="M24" s="0" t="n">
         <v>12950</v>
       </c>
+      <c r="N24" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F24/5000) * 5</f>
+        <v>60</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>110.8295009</v>
@@ -2123,16 +2232,20 @@
       <c r="M25" s="0" t="n">
         <v>11090</v>
       </c>
+      <c r="N25" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F25/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>112.0138795</v>
@@ -2166,16 +2279,20 @@
       <c r="M26" s="0" t="n">
         <v>11026</v>
       </c>
+      <c r="N26" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F26/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>112.6314473</v>
@@ -2209,16 +2326,20 @@
       <c r="M27" s="0" t="n">
         <v>4500</v>
       </c>
+      <c r="N27" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F27/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>112.7377473</v>
@@ -2252,16 +2373,20 @@
       <c r="M28" s="0" t="n">
         <v>17758</v>
       </c>
+      <c r="N28" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F28/5000) * 5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>113.6793971</v>
@@ -2295,16 +2420,20 @@
       <c r="M29" s="0" t="n">
         <v>13208</v>
       </c>
+      <c r="N29" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F29/5000) * 5</f>
+        <v>15</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>113.925826</v>
@@ -2338,16 +2467,20 @@
       <c r="M30" s="0" t="n">
         <v>5712</v>
       </c>
+      <c r="N30" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F30/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>114.5918511</v>
@@ -2381,16 +2514,20 @@
       <c r="M31" s="0" t="n">
         <v>7366</v>
       </c>
+      <c r="N31" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F31/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>115.222783</v>
@@ -2424,16 +2561,20 @@
       <c r="M32" s="0" t="n">
         <v>8510</v>
       </c>
+      <c r="N32" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F32/5000) * 5</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>116.102498</v>
@@ -2467,16 +2608,20 @@
       <c r="M33" s="0" t="n">
         <v>4030</v>
       </c>
+      <c r="N33" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F33/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>116.8291272</v>
@@ -2510,16 +2655,20 @@
       <c r="M34" s="0" t="n">
         <v>4907</v>
       </c>
+      <c r="N34" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F34/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>117.1380567</v>
@@ -2553,16 +2702,20 @@
       <c r="M35" s="0" t="n">
         <v>5607</v>
       </c>
+      <c r="N35" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F35/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>117.5750747</v>
@@ -2596,16 +2749,20 @@
       <c r="M36" s="0" t="n">
         <v>1278</v>
       </c>
+      <c r="N36" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F36/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>118.8895996</v>
@@ -2639,16 +2796,20 @@
       <c r="M37" s="0" t="n">
         <v>2130</v>
       </c>
+      <c r="N37" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F37/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>119.4141384</v>
@@ -2682,16 +2843,20 @@
       <c r="M38" s="0" t="n">
         <v>13867</v>
       </c>
+      <c r="N38" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F38/5000) * 5</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>119.870193</v>
@@ -2725,16 +2890,20 @@
       <c r="M39" s="0" t="n">
         <v>3055</v>
       </c>
+      <c r="N39" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F39/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>122.5507713</v>
@@ -2768,16 +2937,20 @@
       <c r="M40" s="0" t="n">
         <v>11026</v>
       </c>
+      <c r="N40" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F40/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>123.077416</v>
@@ -2811,16 +2984,20 @@
       <c r="M41" s="0" t="n">
         <v>2397</v>
       </c>
+      <c r="N41" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F41/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>123.6059201</v>
@@ -2854,16 +3031,20 @@
       <c r="M42" s="0" t="n">
         <v>5140</v>
       </c>
+      <c r="N42" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F42/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>124.8428007</v>
@@ -2897,16 +3078,20 @@
       <c r="M43" s="0" t="n">
         <v>6020</v>
       </c>
+      <c r="N43" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F43/5000) * 5</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>127.3807226</v>
@@ -2940,16 +3125,20 @@
       <c r="M44" s="0" t="n">
         <v>1944</v>
       </c>
+      <c r="N44" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F44/5000) * 5</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>128.1843218</v>
@@ -2983,16 +3172,20 @@
       <c r="M45" s="0" t="n">
         <v>3464</v>
       </c>
+      <c r="N45" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F45/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>134.07563</v>
@@ -3026,16 +3219,20 @@
       <c r="M46" s="0" t="n">
         <v>1804</v>
       </c>
+      <c r="N46" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F46/5000) * 5</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>140.7058042</v>
@@ -3068,6 +3265,10 @@
       </c>
       <c r="M47" s="0" t="n">
         <v>9346</v>
+      </c>
+      <c r="N47" s="6" t="n">
+        <f aca="false">_xlfn.CEILING.MATH(F47/5000) * 5</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3091,17 +3292,17 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E82" activeCellId="0" sqref="E82"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="61.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
@@ -3129,49 +3330,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,16 +3380,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1000</v>
@@ -3200,39 +3401,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K2" s="7" t="n">
+      <c r="K2" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M2" s="6" t="n">
+      <c r="M2" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N2" s="7" t="n">
+      <c r="N2" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O2" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P2" s="7" t="n">
+      <c r="O2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q2" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" s="7" t="n">
+      <c r="Q2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3242,16 +3443,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1000</v>
@@ -3263,39 +3464,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I3" s="6" t="n">
+      <c r="I3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J3" s="6" t="n">
+      <c r="J3" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="K3" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M3" s="6" t="n">
+      <c r="M3" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N3" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O3" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7" t="n">
+      <c r="O3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q3" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7" t="n">
+      <c r="Q3" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3305,16 +3506,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1000</v>
@@ -3326,39 +3527,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J4" s="6" t="n">
+      <c r="J4" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M4" s="6" t="n">
+      <c r="M4" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N4" s="7" t="n">
+      <c r="N4" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O4" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="7" t="n">
+      <c r="O4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q4" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" s="7" t="n">
+      <c r="Q4" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3368,16 +3569,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1000</v>
@@ -3389,39 +3590,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I5" s="6" t="n">
+      <c r="I5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J5" s="6" t="n">
+      <c r="J5" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M5" s="6" t="n">
+      <c r="M5" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N5" s="7" t="n">
+      <c r="N5" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P5" s="7" t="n">
+      <c r="O5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q5" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R5" s="7" t="n">
+      <c r="Q5" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3431,16 +3632,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1000</v>
@@ -3452,39 +3653,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J6" s="6" t="n">
+      <c r="J6" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K6" s="7" t="n">
+      <c r="K6" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M6" s="6" t="n">
+      <c r="M6" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N6" s="7" t="n">
+      <c r="N6" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O6" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" s="7" t="n">
+      <c r="O6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q6" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R6" s="7" t="n">
+      <c r="Q6" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3494,16 +3695,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1000</v>
@@ -3515,39 +3716,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J7" s="6" t="n">
+      <c r="J7" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N7" s="7" t="n">
+      <c r="N7" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O7" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="7" t="n">
+      <c r="O7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q7" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" s="7" t="n">
+      <c r="Q7" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3557,16 +3758,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1000</v>
@@ -3578,39 +3779,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J8" s="6" t="n">
+      <c r="J8" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K8" s="7" t="n">
+      <c r="K8" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M8" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N8" s="7" t="n">
+      <c r="N8" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O8" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="7" t="n">
+      <c r="O8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q8" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" s="7" t="n">
+      <c r="Q8" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3620,16 +3821,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1000</v>
@@ -3641,39 +3842,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J9" s="6" t="n">
+      <c r="J9" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M9" s="6" t="n">
+      <c r="M9" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="N9" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O9" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="7" t="n">
+      <c r="O9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q9" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" s="7" t="n">
+      <c r="Q9" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3683,16 +3884,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1000</v>
@@ -3704,39 +3905,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I10" s="6" t="n">
+      <c r="I10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K10" s="7" t="n">
+      <c r="K10" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M10" s="6" t="n">
+      <c r="M10" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O10" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="7" t="n">
+      <c r="O10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q10" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R10" s="7" t="n">
+      <c r="Q10" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3746,16 +3947,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1000</v>
@@ -3767,39 +3968,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I11" s="6" t="n">
+      <c r="I11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J11" s="6" t="n">
+      <c r="J11" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K11" s="7" t="n">
+      <c r="K11" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M11" s="6" t="n">
+      <c r="M11" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="7" t="n">
+      <c r="O11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q11" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" s="7" t="n">
+      <c r="Q11" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3809,16 +4010,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1000</v>
@@ -3830,39 +4031,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J12" s="6" t="n">
+      <c r="J12" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K12" s="7" t="n">
+      <c r="K12" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M12" s="6" t="n">
+      <c r="M12" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="7" t="n">
+      <c r="O12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q12" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R12" s="7" t="n">
+      <c r="Q12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3872,16 +4073,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1000</v>
@@ -3893,39 +4094,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I13" s="6" t="n">
+      <c r="I13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J13" s="6" t="n">
+      <c r="J13" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K13" s="7" t="n">
+      <c r="K13" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M13" s="6" t="n">
+      <c r="M13" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="N13" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O13" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="7" t="n">
+      <c r="O13" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q13" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="7" t="n">
+      <c r="Q13" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3935,16 +4136,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1000</v>
@@ -3956,39 +4157,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J14" s="6" t="n">
+      <c r="J14" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K14" s="7" t="n">
+      <c r="K14" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M14" s="6" t="n">
+      <c r="M14" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O14" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="7" t="n">
+      <c r="O14" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" s="7" t="n">
+      <c r="Q14" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3998,16 +4199,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1000</v>
@@ -4019,39 +4220,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I15" s="6" t="n">
+      <c r="I15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J15" s="6" t="n">
+      <c r="J15" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K15" s="7" t="n">
+      <c r="K15" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M15" s="6" t="n">
+      <c r="M15" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O15" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="7" t="n">
+      <c r="O15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" s="7" t="n">
+      <c r="Q15" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4061,16 +4262,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1000</v>
@@ -4082,39 +4283,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I16" s="6" t="n">
+      <c r="I16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J16" s="6" t="n">
+      <c r="J16" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K16" s="7" t="n">
+      <c r="K16" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M16" s="6" t="n">
+      <c r="M16" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" s="7" t="n">
+      <c r="O16" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="7" t="n">
+      <c r="Q16" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4124,16 +4325,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1000</v>
@@ -4145,39 +4346,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I17" s="6" t="n">
+      <c r="I17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J17" s="6" t="n">
+      <c r="J17" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K17" s="7" t="n">
+      <c r="K17" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M17" s="6" t="n">
+      <c r="M17" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O17" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="7" t="n">
+      <c r="O17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q17" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R17" s="7" t="n">
+      <c r="Q17" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4187,16 +4388,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1000</v>
@@ -4208,39 +4409,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I18" s="6" t="n">
+      <c r="I18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J18" s="6" t="n">
+      <c r="J18" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K18" s="7" t="n">
+      <c r="K18" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M18" s="6" t="n">
+      <c r="M18" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O18" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="7" t="n">
+      <c r="O18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q18" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R18" s="7" t="n">
+      <c r="Q18" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4250,16 +4451,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1000</v>
@@ -4271,39 +4472,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I19" s="6" t="n">
+      <c r="I19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J19" s="6" t="n">
+      <c r="J19" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M19" s="6" t="n">
+      <c r="M19" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="N19" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O19" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="7" t="n">
+      <c r="O19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q19" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R19" s="7" t="n">
+      <c r="Q19" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4313,16 +4514,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1000</v>
@@ -4334,39 +4535,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I20" s="6" t="n">
+      <c r="I20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J20" s="6" t="n">
+      <c r="J20" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K20" s="7" t="n">
+      <c r="K20" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M20" s="6" t="n">
+      <c r="M20" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O20" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="7" t="n">
+      <c r="O20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q20" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R20" s="7" t="n">
+      <c r="Q20" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4376,16 +4577,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1000</v>
@@ -4397,39 +4598,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I21" s="6" t="n">
+      <c r="I21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J21" s="6" t="n">
+      <c r="J21" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K21" s="7" t="n">
+      <c r="K21" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M21" s="6" t="n">
+      <c r="M21" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O21" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" s="7" t="n">
+      <c r="O21" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q21" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" s="7" t="n">
+      <c r="Q21" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4439,16 +4640,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1000</v>
@@ -4460,39 +4661,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I22" s="6" t="n">
+      <c r="I22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J22" s="6" t="n">
+      <c r="J22" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K22" s="7" t="n">
+      <c r="K22" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M22" s="6" t="n">
+      <c r="M22" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="N22" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O22" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="n">
+      <c r="O22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q22" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R22" s="7" t="n">
+      <c r="Q22" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4502,16 +4703,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1000</v>
@@ -4523,39 +4724,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I23" s="6" t="n">
+      <c r="I23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J23" s="6" t="n">
+      <c r="J23" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K23" s="7" t="n">
+      <c r="K23" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="L23" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M23" s="6" t="n">
+      <c r="M23" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O23" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="n">
+      <c r="O23" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q23" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R23" s="7" t="n">
+      <c r="Q23" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4565,16 +4766,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1000</v>
@@ -4586,39 +4787,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I24" s="6" t="n">
+      <c r="I24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J24" s="6" t="n">
+      <c r="J24" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K24" s="7" t="n">
+      <c r="K24" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="L24" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M24" s="6" t="n">
+      <c r="M24" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="N24" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O24" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="n">
+      <c r="O24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q24" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R24" s="7" t="n">
+      <c r="Q24" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4628,16 +4829,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1000</v>
@@ -4649,39 +4850,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I25" s="6" t="n">
+      <c r="I25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J25" s="6" t="n">
+      <c r="J25" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K25" s="7" t="n">
+      <c r="K25" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L25" s="7" t="n">
+      <c r="L25" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M25" s="6" t="n">
+      <c r="M25" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="N25" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O25" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="n">
+      <c r="O25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q25" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R25" s="7" t="n">
+      <c r="Q25" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4691,16 +4892,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1000</v>
@@ -4712,39 +4913,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I26" s="6" t="n">
+      <c r="I26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J26" s="6" t="n">
+      <c r="J26" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K26" s="7" t="n">
+      <c r="K26" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L26" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M26" s="6" t="n">
+      <c r="M26" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N26" s="7" t="n">
+      <c r="N26" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O26" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="n">
+      <c r="O26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q26" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" s="7" t="n">
+      <c r="Q26" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4754,16 +4955,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1000</v>
@@ -4775,39 +4976,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I27" s="6" t="n">
+      <c r="I27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J27" s="6" t="n">
+      <c r="J27" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K27" s="7" t="n">
+      <c r="K27" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L27" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M27" s="6" t="n">
+      <c r="M27" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N27" s="7" t="n">
+      <c r="N27" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O27" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="n">
+      <c r="O27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q27" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R27" s="7" t="n">
+      <c r="Q27" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4817,16 +5018,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1000</v>
@@ -4838,39 +5039,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I28" s="6" t="n">
+      <c r="I28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="6" t="n">
+      <c r="J28" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K28" s="7" t="n">
+      <c r="K28" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L28" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M28" s="6" t="n">
+      <c r="M28" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N28" s="7" t="n">
+      <c r="N28" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O28" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="7" t="n">
+      <c r="O28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q28" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R28" s="7" t="n">
+      <c r="Q28" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4880,16 +5081,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1000</v>
@@ -4901,39 +5102,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I29" s="6" t="n">
+      <c r="I29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J29" s="6" t="n">
+      <c r="J29" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K29" s="7" t="n">
+      <c r="K29" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L29" s="7" t="n">
+      <c r="L29" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M29" s="6" t="n">
+      <c r="M29" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N29" s="7" t="n">
+      <c r="N29" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O29" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P29" s="7" t="n">
+      <c r="O29" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q29" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R29" s="7" t="n">
+      <c r="Q29" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4943,16 +5144,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1000</v>
@@ -4964,39 +5165,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I30" s="6" t="n">
+      <c r="I30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J30" s="6" t="n">
+      <c r="J30" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K30" s="7" t="n">
+      <c r="K30" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L30" s="7" t="n">
+      <c r="L30" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M30" s="6" t="n">
+      <c r="M30" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N30" s="7" t="n">
+      <c r="N30" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O30" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P30" s="7" t="n">
+      <c r="O30" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q30" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R30" s="7" t="n">
+      <c r="Q30" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5006,16 +5207,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1000</v>
@@ -5027,39 +5228,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I31" s="6" t="n">
+      <c r="I31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J31" s="6" t="n">
+      <c r="J31" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K31" s="7" t="n">
+      <c r="K31" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M31" s="6" t="n">
+      <c r="M31" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N31" s="7" t="n">
+      <c r="N31" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O31" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="n">
+      <c r="O31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q31" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R31" s="7" t="n">
+      <c r="Q31" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5069,16 +5270,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1000</v>
@@ -5090,39 +5291,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I32" s="6" t="n">
+      <c r="I32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J32" s="6" t="n">
+      <c r="J32" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K32" s="7" t="n">
+      <c r="K32" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M32" s="6" t="n">
+      <c r="M32" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N32" s="7" t="n">
+      <c r="N32" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O32" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="n">
+      <c r="O32" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q32" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R32" s="7" t="n">
+      <c r="Q32" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5132,16 +5333,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1000</v>
@@ -5153,39 +5354,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I33" s="6" t="n">
+      <c r="I33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J33" s="6" t="n">
+      <c r="J33" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K33" s="7" t="n">
+      <c r="K33" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L33" s="7" t="n">
+      <c r="L33" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M33" s="6" t="n">
+      <c r="M33" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N33" s="7" t="n">
+      <c r="N33" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O33" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P33" s="7" t="n">
+      <c r="O33" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q33" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R33" s="7" t="n">
+      <c r="Q33" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5195,16 +5396,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1000</v>
@@ -5216,39 +5417,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I34" s="6" t="n">
+      <c r="I34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J34" s="6" t="n">
+      <c r="J34" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K34" s="7" t="n">
+      <c r="K34" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L34" s="7" t="n">
+      <c r="L34" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M34" s="6" t="n">
+      <c r="M34" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N34" s="7" t="n">
+      <c r="N34" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O34" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="n">
+      <c r="O34" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q34" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R34" s="7" t="n">
+      <c r="Q34" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5258,16 +5459,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1000</v>
@@ -5279,39 +5480,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I35" s="6" t="n">
+      <c r="I35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J35" s="6" t="n">
+      <c r="J35" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K35" s="7" t="n">
+      <c r="K35" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L35" s="7" t="n">
+      <c r="L35" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M35" s="6" t="n">
+      <c r="M35" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N35" s="7" t="n">
+      <c r="N35" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O35" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P35" s="7" t="n">
+      <c r="O35" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q35" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R35" s="7" t="n">
+      <c r="Q35" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R35" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5321,16 +5522,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1000</v>
@@ -5342,39 +5543,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I36" s="6" t="n">
+      <c r="I36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J36" s="6" t="n">
+      <c r="J36" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K36" s="7" t="n">
+      <c r="K36" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L36" s="7" t="n">
+      <c r="L36" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M36" s="6" t="n">
+      <c r="M36" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N36" s="7" t="n">
+      <c r="N36" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O36" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P36" s="7" t="n">
+      <c r="O36" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q36" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R36" s="7" t="n">
+      <c r="Q36" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R36" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5384,16 +5585,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1000</v>
@@ -5405,39 +5606,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I37" s="6" t="n">
+      <c r="I37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J37" s="6" t="n">
+      <c r="J37" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K37" s="7" t="n">
+      <c r="K37" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L37" s="7" t="n">
+      <c r="L37" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M37" s="6" t="n">
+      <c r="M37" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N37" s="7" t="n">
+      <c r="N37" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O37" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P37" s="7" t="n">
+      <c r="O37" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q37" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R37" s="7" t="n">
+      <c r="Q37" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5447,16 +5648,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1000</v>
@@ -5468,39 +5669,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I38" s="6" t="n">
+      <c r="I38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J38" s="6" t="n">
+      <c r="J38" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K38" s="7" t="n">
+      <c r="K38" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L38" s="7" t="n">
+      <c r="L38" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M38" s="6" t="n">
+      <c r="M38" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N38" s="7" t="n">
+      <c r="N38" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O38" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P38" s="7" t="n">
+      <c r="O38" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q38" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R38" s="7" t="n">
+      <c r="Q38" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5510,16 +5711,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1000</v>
@@ -5531,39 +5732,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I39" s="6" t="n">
+      <c r="I39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J39" s="6" t="n">
+      <c r="J39" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K39" s="7" t="n">
+      <c r="K39" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L39" s="7" t="n">
+      <c r="L39" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M39" s="6" t="n">
+      <c r="M39" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N39" s="7" t="n">
+      <c r="N39" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O39" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P39" s="7" t="n">
+      <c r="O39" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P39" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q39" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R39" s="7" t="n">
+      <c r="Q39" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5573,16 +5774,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1000</v>
@@ -5594,39 +5795,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I40" s="6" t="n">
+      <c r="I40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J40" s="6" t="n">
+      <c r="J40" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K40" s="7" t="n">
+      <c r="K40" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L40" s="7" t="n">
+      <c r="L40" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M40" s="6" t="n">
+      <c r="M40" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N40" s="7" t="n">
+      <c r="N40" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O40" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="n">
+      <c r="O40" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q40" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R40" s="7" t="n">
+      <c r="Q40" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5636,16 +5837,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1000</v>
@@ -5657,39 +5858,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I41" s="6" t="n">
+      <c r="I41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J41" s="6" t="n">
+      <c r="J41" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K41" s="7" t="n">
+      <c r="K41" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L41" s="7" t="n">
+      <c r="L41" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M41" s="6" t="n">
+      <c r="M41" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N41" s="7" t="n">
+      <c r="N41" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O41" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P41" s="7" t="n">
+      <c r="O41" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q41" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R41" s="7" t="n">
+      <c r="Q41" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5699,16 +5900,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1000</v>
@@ -5720,39 +5921,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I42" s="6" t="n">
+      <c r="I42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J42" s="6" t="n">
+      <c r="J42" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K42" s="7" t="n">
+      <c r="K42" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L42" s="7" t="n">
+      <c r="L42" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M42" s="6" t="n">
+      <c r="M42" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N42" s="7" t="n">
+      <c r="N42" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O42" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P42" s="7" t="n">
+      <c r="O42" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P42" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q42" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R42" s="7" t="n">
+      <c r="Q42" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R42" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5762,16 +5963,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1000</v>
@@ -5783,39 +5984,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I43" s="6" t="n">
+      <c r="I43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J43" s="6" t="n">
+      <c r="J43" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K43" s="7" t="n">
+      <c r="K43" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L43" s="7" t="n">
+      <c r="L43" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M43" s="6" t="n">
+      <c r="M43" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N43" s="7" t="n">
+      <c r="N43" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O43" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P43" s="7" t="n">
+      <c r="O43" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q43" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R43" s="7" t="n">
+      <c r="Q43" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R43" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5825,16 +6026,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1000</v>
@@ -5846,39 +6047,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I44" s="6" t="n">
+      <c r="I44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J44" s="6" t="n">
+      <c r="J44" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K44" s="7" t="n">
+      <c r="K44" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L44" s="7" t="n">
+      <c r="L44" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M44" s="6" t="n">
+      <c r="M44" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N44" s="7" t="n">
+      <c r="N44" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O44" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P44" s="7" t="n">
+      <c r="O44" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q44" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R44" s="7" t="n">
+      <c r="Q44" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5888,16 +6089,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1000</v>
@@ -5909,39 +6110,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I45" s="6" t="n">
+      <c r="I45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J45" s="6" t="n">
+      <c r="J45" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K45" s="7" t="n">
+      <c r="K45" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L45" s="7" t="n">
+      <c r="L45" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M45" s="6" t="n">
+      <c r="M45" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N45" s="7" t="n">
+      <c r="N45" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O45" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P45" s="7" t="n">
+      <c r="O45" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P45" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q45" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R45" s="7" t="n">
+      <c r="Q45" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R45" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5951,16 +6152,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1000</v>
@@ -5972,39 +6173,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I46" s="6" t="n">
+      <c r="I46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J46" s="6" t="n">
+      <c r="J46" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K46" s="7" t="n">
+      <c r="K46" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L46" s="7" t="n">
+      <c r="L46" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M46" s="6" t="n">
+      <c r="M46" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N46" s="7" t="n">
+      <c r="N46" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O46" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P46" s="7" t="n">
+      <c r="O46" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P46" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q46" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R46" s="7" t="n">
+      <c r="Q46" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6014,16 +6215,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1000</v>
@@ -6035,39 +6236,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I47" s="6" t="n">
+      <c r="I47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J47" s="6" t="n">
+      <c r="J47" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L47" s="7" t="n">
+      <c r="L47" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M47" s="6" t="n">
+      <c r="M47" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N47" s="7" t="n">
+      <c r="N47" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O47" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P47" s="7" t="n">
+      <c r="O47" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P47" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q47" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R47" s="7" t="n">
+      <c r="Q47" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6077,16 +6278,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D48" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1000</v>
@@ -6098,39 +6299,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I48" s="6" t="n">
+      <c r="I48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J48" s="6" t="n">
+      <c r="J48" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K48" s="7" t="n">
+      <c r="K48" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L48" s="7" t="n">
+      <c r="L48" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M48" s="6" t="n">
+      <c r="M48" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N48" s="7" t="n">
+      <c r="N48" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O48" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P48" s="7" t="n">
+      <c r="O48" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q48" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R48" s="7" t="n">
+      <c r="Q48" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R48" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6140,16 +6341,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D49" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1000</v>
@@ -6161,39 +6362,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I49" s="6" t="n">
+      <c r="I49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J49" s="6" t="n">
+      <c r="J49" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K49" s="7" t="n">
+      <c r="K49" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="L49" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M49" s="6" t="n">
+      <c r="M49" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N49" s="7" t="n">
+      <c r="N49" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O49" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P49" s="7" t="n">
+      <c r="O49" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P49" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q49" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R49" s="7" t="n">
+      <c r="Q49" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R49" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6203,16 +6404,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1000</v>
@@ -6224,39 +6425,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I50" s="6" t="n">
+      <c r="I50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J50" s="6" t="n">
+      <c r="J50" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K50" s="7" t="n">
+      <c r="K50" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L50" s="7" t="n">
+      <c r="L50" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M50" s="6" t="n">
+      <c r="M50" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N50" s="7" t="n">
+      <c r="N50" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O50" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P50" s="7" t="n">
+      <c r="O50" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P50" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q50" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R50" s="7" t="n">
+      <c r="Q50" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R50" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6266,16 +6467,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1000</v>
@@ -6287,39 +6488,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I51" s="6" t="n">
+      <c r="I51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J51" s="6" t="n">
+      <c r="J51" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K51" s="7" t="n">
+      <c r="K51" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L51" s="7" t="n">
+      <c r="L51" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M51" s="6" t="n">
+      <c r="M51" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N51" s="7" t="n">
+      <c r="N51" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O51" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P51" s="7" t="n">
+      <c r="O51" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P51" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q51" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R51" s="7" t="n">
+      <c r="Q51" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R51" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6329,16 +6530,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1000</v>
@@ -6350,39 +6551,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I52" s="6" t="n">
+      <c r="I52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J52" s="6" t="n">
+      <c r="J52" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K52" s="7" t="n">
+      <c r="K52" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L52" s="7" t="n">
+      <c r="L52" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M52" s="6" t="n">
+      <c r="M52" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N52" s="7" t="n">
+      <c r="N52" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O52" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P52" s="7" t="n">
+      <c r="O52" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q52" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R52" s="7" t="n">
+      <c r="Q52" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6392,16 +6593,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D53" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1000</v>
@@ -6413,39 +6614,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I53" s="6" t="n">
+      <c r="I53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J53" s="6" t="n">
+      <c r="J53" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K53" s="7" t="n">
+      <c r="K53" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L53" s="7" t="n">
+      <c r="L53" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M53" s="6" t="n">
+      <c r="M53" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N53" s="7" t="n">
+      <c r="N53" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O53" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P53" s="7" t="n">
+      <c r="O53" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P53" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q53" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R53" s="7" t="n">
+      <c r="Q53" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R53" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6455,16 +6656,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1000</v>
@@ -6476,39 +6677,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I54" s="6" t="n">
+      <c r="I54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J54" s="6" t="n">
+      <c r="J54" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K54" s="7" t="n">
+      <c r="K54" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L54" s="7" t="n">
+      <c r="L54" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M54" s="6" t="n">
+      <c r="M54" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N54" s="7" t="n">
+      <c r="N54" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O54" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P54" s="7" t="n">
+      <c r="O54" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P54" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q54" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R54" s="7" t="n">
+      <c r="Q54" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R54" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6518,16 +6719,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1000</v>
@@ -6539,39 +6740,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I55" s="6" t="n">
+      <c r="I55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J55" s="6" t="n">
+      <c r="J55" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K55" s="7" t="n">
+      <c r="K55" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L55" s="7" t="n">
+      <c r="L55" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M55" s="6" t="n">
+      <c r="M55" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N55" s="7" t="n">
+      <c r="N55" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O55" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P55" s="7" t="n">
+      <c r="O55" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P55" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q55" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R55" s="7" t="n">
+      <c r="Q55" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R55" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6581,16 +6782,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1000</v>
@@ -6602,39 +6803,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I56" s="6" t="n">
+      <c r="I56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J56" s="6" t="n">
+      <c r="J56" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K56" s="7" t="n">
+      <c r="K56" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L56" s="7" t="n">
+      <c r="L56" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M56" s="6" t="n">
+      <c r="M56" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N56" s="7" t="n">
+      <c r="N56" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O56" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P56" s="7" t="n">
+      <c r="O56" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P56" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q56" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R56" s="7" t="n">
+      <c r="Q56" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R56" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6644,16 +6845,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1000</v>
@@ -6665,39 +6866,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I57" s="6" t="n">
+      <c r="I57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J57" s="6" t="n">
+      <c r="J57" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K57" s="7" t="n">
+      <c r="K57" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L57" s="7" t="n">
+      <c r="L57" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M57" s="6" t="n">
+      <c r="M57" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N57" s="7" t="n">
+      <c r="N57" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O57" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P57" s="7" t="n">
+      <c r="O57" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P57" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q57" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R57" s="7" t="n">
+      <c r="Q57" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R57" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6707,16 +6908,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1000</v>
@@ -6728,39 +6929,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I58" s="6" t="n">
+      <c r="I58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J58" s="6" t="n">
+      <c r="J58" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K58" s="7" t="n">
+      <c r="K58" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L58" s="7" t="n">
+      <c r="L58" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M58" s="6" t="n">
+      <c r="M58" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N58" s="7" t="n">
+      <c r="N58" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O58" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P58" s="7" t="n">
+      <c r="O58" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P58" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q58" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R58" s="7" t="n">
+      <c r="Q58" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R58" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6770,16 +6971,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1000</v>
@@ -6791,39 +6992,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I59" s="6" t="n">
+      <c r="I59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J59" s="6" t="n">
+      <c r="J59" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K59" s="7" t="n">
+      <c r="K59" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L59" s="7" t="n">
+      <c r="L59" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M59" s="6" t="n">
+      <c r="M59" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N59" s="7" t="n">
+      <c r="N59" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O59" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P59" s="7" t="n">
+      <c r="O59" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q59" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R59" s="7" t="n">
+      <c r="Q59" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R59" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6833,16 +7034,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1000</v>
@@ -6854,39 +7055,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I60" s="6" t="n">
+      <c r="I60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J60" s="6" t="n">
+      <c r="J60" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K60" s="7" t="n">
+      <c r="K60" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L60" s="7" t="n">
+      <c r="L60" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M60" s="6" t="n">
+      <c r="M60" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N60" s="7" t="n">
+      <c r="N60" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O60" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P60" s="7" t="n">
+      <c r="O60" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q60" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R60" s="7" t="n">
+      <c r="Q60" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R60" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6896,16 +7097,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1000</v>
@@ -6917,39 +7118,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I61" s="6" t="n">
+      <c r="I61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J61" s="6" t="n">
+      <c r="J61" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K61" s="7" t="n">
+      <c r="K61" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L61" s="7" t="n">
+      <c r="L61" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M61" s="6" t="n">
+      <c r="M61" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N61" s="7" t="n">
+      <c r="N61" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O61" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P61" s="7" t="n">
+      <c r="O61" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P61" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q61" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R61" s="7" t="n">
+      <c r="Q61" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R61" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6959,16 +7160,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1000</v>
@@ -6980,39 +7181,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I62" s="6" t="n">
+      <c r="I62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J62" s="6" t="n">
+      <c r="J62" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K62" s="7" t="n">
+      <c r="K62" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L62" s="7" t="n">
+      <c r="L62" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M62" s="6" t="n">
+      <c r="M62" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N62" s="7" t="n">
+      <c r="N62" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O62" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P62" s="7" t="n">
+      <c r="O62" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P62" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q62" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R62" s="7" t="n">
+      <c r="Q62" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R62" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7022,16 +7223,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1000</v>
@@ -7043,39 +7244,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I63" s="6" t="n">
+      <c r="I63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J63" s="6" t="n">
+      <c r="J63" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K63" s="7" t="n">
+      <c r="K63" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L63" s="7" t="n">
+      <c r="L63" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M63" s="6" t="n">
+      <c r="M63" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N63" s="7" t="n">
+      <c r="N63" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O63" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P63" s="7" t="n">
+      <c r="O63" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P63" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q63" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R63" s="7" t="n">
+      <c r="Q63" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R63" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7085,16 +7286,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1000</v>
@@ -7106,39 +7307,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I64" s="6" t="n">
+      <c r="I64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J64" s="6" t="n">
+      <c r="J64" s="7" t="n">
         <v>12000000</v>
       </c>
-      <c r="K64" s="7" t="n">
+      <c r="K64" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L64" s="7" t="n">
+      <c r="L64" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M64" s="6" t="n">
+      <c r="M64" s="7" t="n">
         <v>86000</v>
       </c>
-      <c r="N64" s="7" t="n">
+      <c r="N64" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O64" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P64" s="7" t="n">
+      <c r="O64" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P64" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q64" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R64" s="7" t="n">
+      <c r="Q64" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R64" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7147,17 +7348,17 @@
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="C65" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D65" s="9" t="n">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>550</v>
@@ -7169,39 +7370,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I65" s="9" t="n">
+      <c r="I65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16363.6363636364</v>
       </c>
-      <c r="J65" s="9" t="n">
+      <c r="J65" s="10" t="n">
         <v>9000000</v>
       </c>
-      <c r="K65" s="10" t="n">
+      <c r="K65" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="L65" s="10" t="n">
+      <c r="L65" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M65" s="9" t="n">
+      <c r="M65" s="10" t="n">
         <v>12000</v>
       </c>
-      <c r="N65" s="10" t="n">
+      <c r="N65" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0218181818181818</v>
       </c>
-      <c r="O65" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P65" s="7" t="n">
+      <c r="O65" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P65" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q65" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R65" s="7" t="n">
+      <c r="Q65" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R65" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7210,17 +7411,17 @@
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="8" t="n">
+      <c r="B66" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>550</v>
@@ -7232,39 +7433,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I66" s="9" t="n">
+      <c r="I66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="J66" s="9" t="n">
+      <c r="J66" s="10" t="n">
         <v>10000000</v>
       </c>
-      <c r="K66" s="10" t="n">
+      <c r="K66" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="L66" s="10" t="n">
+      <c r="L66" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="M66" s="9" t="n">
+      <c r="M66" s="10" t="n">
         <v>14000</v>
       </c>
-      <c r="N66" s="10" t="n">
+      <c r="N66" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="O66" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P66" s="7" t="n">
+      <c r="O66" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P66" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q66" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R66" s="7" t="n">
+      <c r="Q66" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R66" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7273,17 +7474,17 @@
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D67" s="8" t="n">
+      <c r="B67" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D67" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>550</v>
@@ -7295,39 +7496,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I67" s="9" t="n">
+      <c r="I67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J67" s="9" t="n">
+      <c r="J67" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K67" s="10" t="n">
+      <c r="K67" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L67" s="10" t="n">
+      <c r="L67" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="M67" s="9" t="n">
+      <c r="M67" s="10" t="n">
         <v>10000</v>
       </c>
-      <c r="N67" s="10" t="n">
+      <c r="N67" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="O67" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P67" s="7" t="n">
+      <c r="O67" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P67" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q67" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R67" s="7" t="n">
+      <c r="Q67" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R67" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7336,17 +7537,17 @@
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D68" s="8" t="n">
+      <c r="B68" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D68" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>550</v>
@@ -7358,39 +7559,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I68" s="9" t="n">
+      <c r="I68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23636.3636363636</v>
       </c>
-      <c r="J68" s="9" t="n">
+      <c r="J68" s="10" t="n">
         <v>13000000</v>
       </c>
-      <c r="K68" s="10" t="n">
+      <c r="K68" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="L68" s="10" t="n">
+      <c r="L68" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20</v>
       </c>
-      <c r="M68" s="9" t="n">
+      <c r="M68" s="10" t="n">
         <v>11000</v>
       </c>
-      <c r="N68" s="10" t="n">
+      <c r="N68" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.02</v>
       </c>
-      <c r="O68" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P68" s="7" t="n">
+      <c r="O68" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P68" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q68" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R68" s="7" t="n">
+      <c r="Q68" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R68" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7399,17 +7600,17 @@
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" s="8" t="n">
+      <c r="B69" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" s="9" t="n">
         <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>550</v>
@@ -7421,39 +7622,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I69" s="9" t="n">
+      <c r="I69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J69" s="9" t="n">
+      <c r="J69" s="10" t="n">
         <v>11000000</v>
       </c>
-      <c r="K69" s="10" t="n">
+      <c r="K69" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L69" s="10" t="n">
+      <c r="L69" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="M69" s="9" t="n">
+      <c r="M69" s="10" t="n">
         <v>9000</v>
       </c>
-      <c r="N69" s="10" t="n">
+      <c r="N69" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0163636363636364</v>
       </c>
-      <c r="O69" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P69" s="7" t="n">
+      <c r="O69" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P69" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q69" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R69" s="7" t="n">
+      <c r="Q69" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R69" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7462,17 +7663,17 @@
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="8" t="n">
+      <c r="B70" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>550</v>
@@ -7484,39 +7685,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I70" s="9" t="n">
+      <c r="I70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>27272.7272727273</v>
       </c>
-      <c r="J70" s="9" t="n">
+      <c r="J70" s="10" t="n">
         <v>15000000</v>
       </c>
-      <c r="K70" s="10" t="n">
+      <c r="K70" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>27.2727272727273</v>
       </c>
-      <c r="L70" s="10" t="n">
+      <c r="L70" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="M70" s="9" t="n">
+      <c r="M70" s="10" t="n">
         <v>14000</v>
       </c>
-      <c r="N70" s="10" t="n">
+      <c r="N70" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="O70" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P70" s="7" t="n">
+      <c r="O70" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P70" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q70" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R70" s="7" t="n">
+      <c r="Q70" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R70" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7525,17 +7726,17 @@
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="8" t="n">
+      <c r="B71" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D71" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>550</v>
@@ -7547,39 +7748,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I71" s="9" t="n">
+      <c r="I71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="J71" s="9" t="n">
+      <c r="J71" s="10" t="n">
         <v>10000000</v>
       </c>
-      <c r="K71" s="10" t="n">
+      <c r="K71" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="L71" s="10" t="n">
+      <c r="L71" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="M71" s="9" t="n">
+      <c r="M71" s="10" t="n">
         <v>13000</v>
       </c>
-      <c r="N71" s="10" t="n">
+      <c r="N71" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0236363636363636</v>
       </c>
-      <c r="O71" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P71" s="7" t="n">
+      <c r="O71" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P71" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q71" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R71" s="7" t="n">
+      <c r="Q71" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R71" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7588,17 +7789,17 @@
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="8" t="n">
+      <c r="B72" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>550</v>
@@ -7610,39 +7811,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I72" s="9" t="n">
+      <c r="I72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20909.0909090909</v>
       </c>
-      <c r="J72" s="9" t="n">
+      <c r="J72" s="10" t="n">
         <v>11500000</v>
       </c>
-      <c r="K72" s="10" t="n">
+      <c r="K72" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20.9090909090909</v>
       </c>
-      <c r="L72" s="10" t="n">
+      <c r="L72" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M72" s="9" t="n">
+      <c r="M72" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N72" s="10" t="n">
+      <c r="N72" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O72" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P72" s="7" t="n">
+      <c r="O72" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P72" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q72" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R72" s="7" t="n">
+      <c r="Q72" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7651,17 +7852,17 @@
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="11" t="n">
+      <c r="B73" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="12" t="n">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>550</v>
@@ -7673,39 +7874,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I73" s="9" t="n">
+      <c r="I73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J73" s="9" t="n">
+      <c r="J73" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K73" s="10" t="n">
+      <c r="K73" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L73" s="10" t="n">
+      <c r="L73" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M73" s="9" t="n">
+      <c r="M73" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N73" s="10" t="n">
+      <c r="N73" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O73" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P73" s="7" t="n">
+      <c r="O73" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P73" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q73" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R73" s="7" t="n">
+      <c r="Q73" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R73" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7714,17 +7915,17 @@
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="8" t="n">
+      <c r="B74" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>550</v>
@@ -7736,39 +7937,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I74" s="9" t="n">
+      <c r="I74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J74" s="9" t="n">
+      <c r="J74" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K74" s="10" t="n">
+      <c r="K74" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L74" s="10" t="n">
+      <c r="L74" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M74" s="9" t="n">
+      <c r="M74" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N74" s="10" t="n">
+      <c r="N74" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O74" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P74" s="7" t="n">
+      <c r="O74" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P74" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q74" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R74" s="7" t="n">
+      <c r="Q74" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R74" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7777,17 +7978,17 @@
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="8" t="n">
+      <c r="B75" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" s="9" t="n">
         <v>6</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>550</v>
@@ -7799,39 +8000,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I75" s="9" t="n">
+      <c r="I75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>22727.2727272727</v>
       </c>
-      <c r="J75" s="9" t="n">
+      <c r="J75" s="10" t="n">
         <v>12500000</v>
       </c>
-      <c r="K75" s="10" t="n">
+      <c r="K75" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>22.7272727272727</v>
       </c>
-      <c r="L75" s="10" t="n">
+      <c r="L75" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M75" s="9" t="n">
+      <c r="M75" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N75" s="10" t="n">
+      <c r="N75" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O75" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P75" s="7" t="n">
+      <c r="O75" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P75" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q75" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R75" s="7" t="n">
+      <c r="Q75" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R75" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7840,17 +8041,17 @@
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="8" t="n">
+      <c r="B76" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="9" t="n">
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>550</v>
@@ -7862,39 +8063,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I76" s="9" t="n">
+      <c r="I76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>19090.9090909091</v>
       </c>
-      <c r="J76" s="9" t="n">
+      <c r="J76" s="10" t="n">
         <v>10500000</v>
       </c>
-      <c r="K76" s="10" t="n">
+      <c r="K76" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>19.0909090909091</v>
       </c>
-      <c r="L76" s="10" t="n">
+      <c r="L76" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M76" s="9" t="n">
+      <c r="M76" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N76" s="10" t="n">
+      <c r="N76" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O76" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P76" s="7" t="n">
+      <c r="O76" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P76" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q76" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R76" s="7" t="n">
+      <c r="Q76" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R76" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7903,17 +8104,17 @@
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D77" s="8" t="n">
+      <c r="B77" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>550</v>
@@ -7925,39 +8126,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I77" s="9" t="n">
+      <c r="I77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J77" s="9" t="n">
+      <c r="J77" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K77" s="10" t="n">
+      <c r="K77" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L77" s="10" t="n">
+      <c r="L77" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M77" s="9" t="n">
+      <c r="M77" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N77" s="10" t="n">
+      <c r="N77" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O77" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P77" s="7" t="n">
+      <c r="O77" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P77" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q77" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R77" s="7" t="n">
+      <c r="Q77" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R77" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7966,17 +8167,17 @@
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D78" s="8" t="n">
+      <c r="B78" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>550</v>
@@ -7988,39 +8189,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I78" s="9" t="n">
+      <c r="I78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J78" s="9" t="n">
+      <c r="J78" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K78" s="10" t="n">
+      <c r="K78" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L78" s="10" t="n">
+      <c r="L78" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M78" s="9" t="n">
+      <c r="M78" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N78" s="10" t="n">
+      <c r="N78" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O78" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P78" s="7" t="n">
+      <c r="O78" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P78" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q78" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R78" s="7" t="n">
+      <c r="Q78" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R78" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8029,17 +8230,17 @@
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D79" s="8" t="n">
+      <c r="B79" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>550</v>
@@ -8051,39 +8252,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I79" s="9" t="n">
+      <c r="I79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J79" s="9" t="n">
+      <c r="J79" s="10" t="n">
         <v>11000000</v>
       </c>
-      <c r="K79" s="10" t="n">
+      <c r="K79" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L79" s="10" t="n">
+      <c r="L79" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M79" s="9" t="n">
+      <c r="M79" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N79" s="10" t="n">
+      <c r="N79" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O79" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P79" s="7" t="n">
+      <c r="O79" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P79" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q79" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R79" s="7" t="n">
+      <c r="Q79" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R79" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8092,17 +8293,17 @@
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="8" t="n">
+      <c r="B80" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>550</v>
@@ -8114,39 +8315,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I80" s="9" t="n">
+      <c r="I80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J80" s="9" t="n">
+      <c r="J80" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K80" s="10" t="n">
+      <c r="K80" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L80" s="10" t="n">
+      <c r="L80" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M80" s="9" t="n">
+      <c r="M80" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N80" s="10" t="n">
+      <c r="N80" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O80" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P80" s="7" t="n">
+      <c r="O80" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P80" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q80" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R80" s="7" t="n">
+      <c r="Q80" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R80" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8155,17 +8356,17 @@
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" s="8" t="n">
+      <c r="B81" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F81" s="1" t="n">
         <v>550</v>
@@ -8177,39 +8378,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I81" s="9" t="n">
+      <c r="I81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J81" s="9" t="n">
+      <c r="J81" s="10" t="n">
         <v>11000000</v>
       </c>
-      <c r="K81" s="10" t="n">
+      <c r="K81" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L81" s="10" t="n">
+      <c r="L81" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M81" s="9" t="n">
+      <c r="M81" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N81" s="10" t="n">
+      <c r="N81" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O81" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P81" s="7" t="n">
+      <c r="O81" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P81" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q81" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R81" s="7" t="n">
+      <c r="Q81" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R81" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8218,17 +8419,17 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="8" t="n">
+      <c r="B82" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" s="9" t="n">
         <v>4</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>550</v>
@@ -8240,39 +8441,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I82" s="9" t="n">
+      <c r="I82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J82" s="9" t="n">
+      <c r="J82" s="10" t="n">
         <v>12000000</v>
       </c>
-      <c r="K82" s="10" t="n">
+      <c r="K82" s="11" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L82" s="10" t="n">
+      <c r="L82" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M82" s="9" t="n">
+      <c r="M82" s="10" t="n">
         <v>2000</v>
       </c>
-      <c r="N82" s="10" t="n">
+      <c r="N82" s="11" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O82" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="P82" s="7" t="n">
+      <c r="O82" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="P82" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q82" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="R82" s="7" t="n">
+      <c r="Q82" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8282,16 +8483,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>250</v>
@@ -8303,39 +8504,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I83" s="6" t="n">
+      <c r="I83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J83" s="6" t="n">
+      <c r="J83" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="K83" s="7" t="n">
+      <c r="K83" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L83" s="7" t="n">
+      <c r="L83" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M83" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N83" s="7" t="n">
+      <c r="M83" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N83" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O83" s="6" t="n">
+      <c r="O83" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="P83" s="7" t="n">
+      <c r="P83" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q83" s="6" t="n">
+      <c r="Q83" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="R83" s="7" t="n">
+      <c r="R83" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8345,16 +8546,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>250</v>
@@ -8366,39 +8567,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I84" s="6" t="n">
+      <c r="I84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J84" s="6" t="n">
+      <c r="J84" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="K84" s="7" t="n">
+      <c r="K84" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L84" s="7" t="n">
+      <c r="L84" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M84" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N84" s="7" t="n">
+      <c r="M84" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N84" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O84" s="6" t="n">
+      <c r="O84" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="P84" s="7" t="n">
+      <c r="P84" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q84" s="6" t="n">
+      <c r="Q84" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="R84" s="7" t="n">
+      <c r="R84" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8408,16 +8609,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>30</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>250</v>
@@ -8429,39 +8630,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I85" s="6" t="n">
+      <c r="I85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J85" s="6" t="n">
+      <c r="J85" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="K85" s="7" t="n">
+      <c r="K85" s="8" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L85" s="7" t="n">
+      <c r="L85" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M85" s="6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N85" s="7" t="n">
+      <c r="M85" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="N85" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O85" s="6" t="n">
+      <c r="O85" s="7" t="n">
         <v>4500</v>
       </c>
-      <c r="P85" s="7" t="n">
+      <c r="P85" s="8" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q85" s="6" t="n">
+      <c r="Q85" s="7" t="n">
         <v>450000</v>
       </c>
-      <c r="R85" s="7" t="n">
+      <c r="R85" s="8" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8491,14 +8692,14 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8530,11 +8731,11 @@
   </sheetPr>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
@@ -8545,7 +8746,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>1</v>
@@ -9198,7 +9399,7 @@
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">

--- a/test/testdata3.xlsx
+++ b/test/testdata3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vertices" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="247">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">INVL</t>
   </si>
   <si>
-    <t xml:space="preserve">ROM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bank Indonesia Aceh</t>
   </si>
   <si>
@@ -211,7 +208,7 @@
     <t xml:space="preserve">Bank Indonesia Jayapura</t>
   </si>
   <si>
-    <t xml:space="preserve">freq</t>
+    <t xml:space="preserve">BP</t>
   </si>
   <si>
     <t xml:space="preserve">cover</t>
@@ -262,6 +259,9 @@
     <t xml:space="preserve">train</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 5</t>
   </si>
   <si>
@@ -277,6 +277,9 @@
     <t xml:space="preserve">KA Argo Bromo Anggrek</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 27 18 23</t>
   </si>
   <si>
@@ -292,12 +295,18 @@
     <t xml:space="preserve">KA Sembrani</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2 2 2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">15 18 19 23 27</t>
   </si>
   <si>
     <t xml:space="preserve">KA Gumarang</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">KA Fajar Utama Semarang</t>
   </si>
   <si>
@@ -322,6 +331,9 @@
     <t xml:space="preserve">KA Tegal Arum</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">19 18 15</t>
   </si>
   <si>
@@ -331,6 +343,9 @@
     <t xml:space="preserve">KA Argo Jati</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">15 18</t>
   </si>
   <si>
@@ -352,6 +367,9 @@
     <t xml:space="preserve">KA Bima</t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2 2 2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 18 20 22 24 27 26</t>
   </si>
   <si>
@@ -436,6 +454,9 @@
     <t xml:space="preserve">KA Malabar </t>
   </si>
   <si>
+    <t xml:space="preserve">2 2 2 2 2 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">26  25 24 22 17 16 </t>
   </si>
   <si>
@@ -595,6 +616,9 @@
     <t xml:space="preserve">ship</t>
   </si>
   <si>
+    <t xml:space="preserve">3 3 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 10 3</t>
   </si>
   <si>
@@ -613,12 +637,18 @@
     <t xml:space="preserve">umsini</t>
   </si>
   <si>
+    <t xml:space="preserve">1 1 1 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 27 37 41</t>
   </si>
   <si>
     <t xml:space="preserve">ciremai</t>
   </si>
   <si>
+    <t xml:space="preserve">1 1 1 1 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">dobonsolo</t>
   </si>
   <si>
@@ -640,6 +670,9 @@
     <t xml:space="preserve">telaga mas</t>
   </si>
   <si>
+    <t xml:space="preserve">4 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 7</t>
   </si>
   <si>
@@ -652,12 +685,18 @@
     <t xml:space="preserve">lagun mas</t>
   </si>
   <si>
+    <t xml:space="preserve">6 6 6 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 27 37 42</t>
   </si>
   <si>
     <t xml:space="preserve">jales mas</t>
   </si>
   <si>
+    <t xml:space="preserve">3 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">15 10</t>
   </si>
   <si>
@@ -697,16 +736,25 @@
     <t xml:space="preserve">truck</t>
   </si>
   <si>
+    <t xml:space="preserve">10 10 30 10 20 10 20 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">1 2 3 4 5 6 7 8 9 11 12 13 14 15 16 17 18 19 20 22 23 24 25 26 27 28 31 32</t>
   </si>
   <si>
     <t xml:space="preserve">truk KASUL</t>
   </si>
   <si>
+    <t xml:space="preserve">20 20 20 30 30 30 30 30 30 30 30 30</t>
+  </si>
+  <si>
     <t xml:space="preserve">21 29 30 33 34 35 36 37 38 39 40 42                </t>
   </si>
   <si>
     <t xml:space="preserve">truk PAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 30</t>
   </si>
   <si>
     <t xml:space="preserve">45 46                          </t>
@@ -722,17 +770,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="General"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;Rp&quot;* #,##0_-;&quot;-Rp&quot;* #,##0_-;_-&quot;Rp&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -754,12 +801,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -833,7 +874,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -858,7 +899,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,19 +907,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -988,7 +1025,7 @@
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="name"/>
     <tableColumn id="3" name="type"/>
-    <tableColumn id="4" name="freq"/>
+    <tableColumn id="4" name="BP"/>
     <tableColumn id="5" name="cover"/>
     <tableColumn id="6" name="CON"/>
     <tableColumn id="7" name="Q (CT)"/>
@@ -1045,13 +1082,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -1063,6 +1100,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1105,19 +1143,16 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>95.3168672</v>
@@ -1151,20 +1186,16 @@
       <c r="M2" s="4" t="n">
         <v>3915</v>
       </c>
-      <c r="N2" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F2/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>97.1411612</v>
@@ -1198,20 +1229,16 @@
       <c r="M3" s="0" t="n">
         <v>6192</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F3/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>98.6770692</v>
@@ -1245,20 +1272,16 @@
       <c r="M4" s="0" t="n">
         <v>7170</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F4/5000) * 5</f>
-        <v>35</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>98.77534</v>
@@ -1292,20 +1315,16 @@
       <c r="M5" s="0" t="n">
         <v>4411</v>
       </c>
-      <c r="N5" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F5/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>99.0582705</v>
@@ -1339,20 +1358,16 @@
       <c r="M6" s="0" t="n">
         <v>4948</v>
       </c>
-      <c r="N6" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F6/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>100.3622993</v>
@@ -1386,20 +1401,16 @@
       <c r="M7" s="0" t="n">
         <v>9355</v>
       </c>
-      <c r="N7" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F7/5000) * 5</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>101.446956</v>
@@ -1433,20 +1444,16 @@
       <c r="M8" s="0" t="n">
         <v>17015</v>
       </c>
-      <c r="N8" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F8/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>102.253207</v>
@@ -1480,20 +1487,16 @@
       <c r="M9" s="0" t="n">
         <v>4443</v>
       </c>
-      <c r="N9" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F9/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>103.5828587</v>
@@ -1527,20 +1530,16 @@
       <c r="M10" s="0" t="n">
         <v>7313</v>
       </c>
-      <c r="N10" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F10/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>104.0558977</v>
@@ -1574,20 +1573,16 @@
       <c r="M11" s="0" t="n">
         <v>5114</v>
       </c>
-      <c r="N11" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F11/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>104.7544829</v>
@@ -1621,20 +1616,16 @@
       <c r="M12" s="0" t="n">
         <v>12579</v>
       </c>
-      <c r="N12" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F12/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>105.267406</v>
@@ -1668,20 +1659,16 @@
       <c r="M13" s="0" t="n">
         <v>11641</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F13/5000) * 5</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>106.1498068</v>
@@ -1715,20 +1702,16 @@
       <c r="M14" s="0" t="n">
         <v>7820</v>
       </c>
-      <c r="N14" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F14/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>106.1570726</v>
@@ -1762,20 +1745,16 @@
       <c r="M15" s="0" t="n">
         <v>5717</v>
       </c>
-      <c r="N15" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F15/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>106.8247514</v>
@@ -1809,20 +1788,16 @@
       <c r="M16" s="0" t="n">
         <v>495618</v>
       </c>
-      <c r="N16" s="0" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F16/5000) * 5</f>
-        <v>10000</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>107.6092794</v>
@@ -1856,20 +1831,16 @@
       <c r="M17" s="0" t="n">
         <v>21851</v>
       </c>
-      <c r="N17" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F17/5000) * 5</f>
-        <v>75</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>108.2257789</v>
@@ -1903,20 +1874,16 @@
       <c r="M18" s="0" t="n">
         <v>4978</v>
       </c>
-      <c r="N18" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F18/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>108.5721852</v>
@@ -1950,20 +1917,16 @@
       <c r="M19" s="0" t="n">
         <v>6465</v>
       </c>
-      <c r="N19" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F19/5000) * 5</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>109.1288435</v>
@@ -1997,20 +1960,16 @@
       <c r="M20" s="0" t="n">
         <v>5741</v>
       </c>
-      <c r="N20" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F20/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>109.2379672</v>
@@ -2044,20 +2003,16 @@
       <c r="M21" s="0" t="n">
         <v>7020</v>
       </c>
-      <c r="N21" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F21/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>109.35379</v>
@@ -2091,20 +2046,16 @@
       <c r="M22" s="0" t="n">
         <v>6447</v>
       </c>
-      <c r="N22" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F22/5000) * 5</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>110.3659379</v>
@@ -2138,20 +2089,16 @@
       <c r="M23" s="0" t="n">
         <v>9606</v>
       </c>
-      <c r="N23" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F23/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>110.4226331</v>
@@ -2185,20 +2132,16 @@
       <c r="M24" s="0" t="n">
         <v>12950</v>
       </c>
-      <c r="N24" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F24/5000) * 5</f>
-        <v>60</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>110.8295009</v>
@@ -2232,20 +2175,16 @@
       <c r="M25" s="0" t="n">
         <v>11090</v>
       </c>
-      <c r="N25" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F25/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>112.0138795</v>
@@ -2279,20 +2218,16 @@
       <c r="M26" s="0" t="n">
         <v>11026</v>
       </c>
-      <c r="N26" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F26/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>112.6314473</v>
@@ -2326,20 +2261,16 @@
       <c r="M27" s="0" t="n">
         <v>4500</v>
       </c>
-      <c r="N27" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F27/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>112.7377473</v>
@@ -2373,20 +2304,16 @@
       <c r="M28" s="0" t="n">
         <v>17758</v>
       </c>
-      <c r="N28" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F28/5000) * 5</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>113.6793971</v>
@@ -2420,20 +2347,16 @@
       <c r="M29" s="0" t="n">
         <v>13208</v>
       </c>
-      <c r="N29" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F29/5000) * 5</f>
-        <v>15</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>113.925826</v>
@@ -2467,20 +2390,16 @@
       <c r="M30" s="0" t="n">
         <v>5712</v>
       </c>
-      <c r="N30" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F30/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>114.5918511</v>
@@ -2514,20 +2433,16 @@
       <c r="M31" s="0" t="n">
         <v>7366</v>
       </c>
-      <c r="N31" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F31/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>115.222783</v>
@@ -2561,20 +2476,16 @@
       <c r="M32" s="0" t="n">
         <v>8510</v>
       </c>
-      <c r="N32" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F32/5000) * 5</f>
-        <v>30</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>116.102498</v>
@@ -2608,20 +2519,16 @@
       <c r="M33" s="0" t="n">
         <v>4030</v>
       </c>
-      <c r="N33" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F33/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="0" t="n">
         <v>116.8291272</v>
@@ -2655,20 +2562,16 @@
       <c r="M34" s="0" t="n">
         <v>4907</v>
       </c>
-      <c r="N34" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F34/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>117.1380567</v>
@@ -2702,20 +2605,16 @@
       <c r="M35" s="0" t="n">
         <v>5607</v>
       </c>
-      <c r="N35" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F35/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>117.5750747</v>
@@ -2749,20 +2648,16 @@
       <c r="M36" s="0" t="n">
         <v>1278</v>
       </c>
-      <c r="N36" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F36/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>118.8895996</v>
@@ -2796,20 +2691,16 @@
       <c r="M37" s="0" t="n">
         <v>2130</v>
       </c>
-      <c r="N37" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F37/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38" s="0" t="n">
         <v>119.4141384</v>
@@ -2843,20 +2734,16 @@
       <c r="M38" s="0" t="n">
         <v>13867</v>
       </c>
-      <c r="N38" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F38/5000) * 5</f>
-        <v>25</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>119.870193</v>
@@ -2890,20 +2777,16 @@
       <c r="M39" s="0" t="n">
         <v>3055</v>
       </c>
-      <c r="N39" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F39/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40" s="0" t="n">
         <v>122.5507713</v>
@@ -2937,20 +2820,16 @@
       <c r="M40" s="0" t="n">
         <v>11026</v>
       </c>
-      <c r="N40" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F40/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>123.077416</v>
@@ -2984,20 +2863,16 @@
       <c r="M41" s="0" t="n">
         <v>2397</v>
       </c>
-      <c r="N41" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F41/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>123.6059201</v>
@@ -3031,20 +2906,16 @@
       <c r="M42" s="0" t="n">
         <v>5140</v>
       </c>
-      <c r="N42" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F42/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>124.8428007</v>
@@ -3078,20 +2949,16 @@
       <c r="M43" s="0" t="n">
         <v>6020</v>
       </c>
-      <c r="N43" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F43/5000) * 5</f>
-        <v>20</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>127.3807226</v>
@@ -3125,20 +2992,16 @@
       <c r="M44" s="0" t="n">
         <v>1944</v>
       </c>
-      <c r="N44" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F44/5000) * 5</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>128.1843218</v>
@@ -3172,20 +3035,16 @@
       <c r="M45" s="0" t="n">
         <v>3464</v>
       </c>
-      <c r="N45" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F45/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46" s="0" t="n">
         <v>134.07563</v>
@@ -3219,20 +3078,16 @@
       <c r="M46" s="0" t="n">
         <v>1804</v>
       </c>
-      <c r="N46" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F46/5000) * 5</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>140.7058042</v>
@@ -3265,10 +3120,6 @@
       </c>
       <c r="M47" s="0" t="n">
         <v>9346</v>
-      </c>
-      <c r="N47" s="6" t="n">
-        <f aca="false">_xlfn.CEILING.MATH(F47/5000) * 5</f>
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3292,17 +3143,17 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E84" activeCellId="0" sqref="E84"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="65.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="65.07"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
@@ -3330,49 +3181,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3380,13 +3231,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>79</v>
@@ -3401,39 +3252,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I2" s="7" t="n">
+      <c r="I2" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J2" s="7" t="n">
+      <c r="J2" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M2" s="7" t="n">
+      <c r="M2" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N2" s="8" t="n">
+      <c r="N2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O2" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P2" s="8" t="n">
+      <c r="O2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q2" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R2" s="8" t="n">
+      <c r="Q2" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R2" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3446,10 +3297,10 @@
         <v>80</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>81</v>
@@ -3464,39 +3315,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="J3" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="M3" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N3" s="8" t="n">
+      <c r="N3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O3" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P3" s="8" t="n">
+      <c r="O3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q3" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" s="8" t="n">
+      <c r="Q3" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3509,10 +3360,10 @@
         <v>82</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>81</v>
@@ -3527,39 +3378,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J4" s="7" t="n">
+      <c r="J4" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K4" s="8" t="n">
+      <c r="K4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L4" s="8" t="n">
+      <c r="L4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N4" s="8" t="n">
+      <c r="N4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P4" s="8" t="n">
+      <c r="O4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q4" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" s="8" t="n">
+      <c r="Q4" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3572,13 +3423,13 @@
         <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>1000</v>
@@ -3590,39 +3441,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L5" s="8" t="n">
+      <c r="L5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P5" s="8" t="n">
+      <c r="O5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q5" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R5" s="8" t="n">
+      <c r="Q5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3632,16 +3483,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>1000</v>
@@ -3653,39 +3504,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I6" s="7" t="n">
+      <c r="I6" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J6" s="7" t="n">
+      <c r="J6" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K6" s="8" t="n">
+      <c r="K6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L6" s="8" t="n">
+      <c r="L6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M6" s="7" t="n">
+      <c r="M6" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N6" s="8" t="n">
+      <c r="N6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P6" s="8" t="n">
+      <c r="O6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q6" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R6" s="8" t="n">
+      <c r="Q6" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3695,16 +3546,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>1000</v>
@@ -3716,39 +3567,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I7" s="7" t="n">
+      <c r="I7" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K7" s="8" t="n">
+      <c r="K7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M7" s="7" t="n">
+      <c r="M7" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N7" s="8" t="n">
+      <c r="N7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O7" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P7" s="8" t="n">
+      <c r="O7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q7" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R7" s="8" t="n">
+      <c r="Q7" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R7" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3758,16 +3609,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>90</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1000</v>
@@ -3779,39 +3630,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J8" s="7" t="n">
+      <c r="J8" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M8" s="7" t="n">
+      <c r="M8" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P8" s="8" t="n">
+      <c r="O8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q8" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R8" s="8" t="n">
+      <c r="Q8" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R8" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3821,16 +3672,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1000</v>
@@ -3842,39 +3693,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K9" s="8" t="n">
+      <c r="K9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L9" s="8" t="n">
+      <c r="L9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8" t="n">
+      <c r="O9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R9" s="8" t="n">
+      <c r="Q9" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R9" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3884,16 +3735,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1000</v>
@@ -3905,39 +3756,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J10" s="7" t="n">
+      <c r="J10" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K10" s="8" t="n">
+      <c r="K10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L10" s="8" t="n">
+      <c r="L10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P10" s="8" t="n">
+      <c r="O10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q10" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R10" s="8" t="n">
+      <c r="Q10" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R10" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -3947,16 +3798,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>1000</v>
@@ -3968,39 +3819,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J11" s="7" t="n">
+      <c r="J11" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K11" s="8" t="n">
+      <c r="K11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L11" s="8" t="n">
+      <c r="L11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="M11" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N11" s="8" t="n">
+      <c r="N11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P11" s="8" t="n">
+      <c r="O11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q11" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R11" s="8" t="n">
+      <c r="Q11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4010,16 +3861,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1000</v>
@@ -4031,39 +3882,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J12" s="7" t="n">
+      <c r="J12" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N12" s="8" t="n">
+      <c r="N12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P12" s="8" t="n">
+      <c r="O12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q12" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R12" s="8" t="n">
+      <c r="Q12" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R12" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4073,16 +3924,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1000</v>
@@ -4094,39 +3945,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J13" s="7" t="n">
+      <c r="J13" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K13" s="8" t="n">
+      <c r="K13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L13" s="8" t="n">
+      <c r="L13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="M13" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N13" s="8" t="n">
+      <c r="N13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P13" s="8" t="n">
+      <c r="O13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q13" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" s="8" t="n">
+      <c r="Q13" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R13" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4136,16 +3987,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1000</v>
@@ -4157,39 +4008,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I14" s="7" t="n">
+      <c r="I14" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J14" s="7" t="n">
+      <c r="J14" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K14" s="8" t="n">
+      <c r="K14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L14" s="8" t="n">
+      <c r="L14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N14" s="8" t="n">
+      <c r="N14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O14" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="8" t="n">
+      <c r="O14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q14" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R14" s="8" t="n">
+      <c r="Q14" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R14" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4199,16 +4050,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>1000</v>
@@ -4220,39 +4071,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I15" s="7" t="n">
+      <c r="I15" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J15" s="7" t="n">
+      <c r="J15" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K15" s="8" t="n">
+      <c r="K15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L15" s="8" t="n">
+      <c r="L15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N15" s="8" t="n">
+      <c r="N15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O15" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P15" s="8" t="n">
+      <c r="O15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q15" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R15" s="8" t="n">
+      <c r="Q15" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R15" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4262,16 +4113,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1000</v>
@@ -4283,39 +4134,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J16" s="7" t="n">
+      <c r="J16" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N16" s="8" t="n">
+      <c r="N16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P16" s="8" t="n">
+      <c r="O16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q16" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R16" s="8" t="n">
+      <c r="Q16" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R16" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4325,16 +4176,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>106</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1000</v>
@@ -4346,39 +4197,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I17" s="7" t="n">
+      <c r="I17" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J17" s="7" t="n">
+      <c r="J17" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K17" s="8" t="n">
+      <c r="K17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L17" s="8" t="n">
+      <c r="L17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N17" s="8" t="n">
+      <c r="N17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P17" s="8" t="n">
+      <c r="O17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q17" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R17" s="8" t="n">
+      <c r="Q17" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R17" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4388,16 +4239,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1000</v>
@@ -4409,39 +4260,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I18" s="7" t="n">
+      <c r="I18" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J18" s="7" t="n">
+      <c r="J18" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K18" s="8" t="n">
+      <c r="K18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L18" s="8" t="n">
+      <c r="L18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N18" s="8" t="n">
+      <c r="N18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P18" s="8" t="n">
+      <c r="O18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q18" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R18" s="8" t="n">
+      <c r="Q18" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R18" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4451,16 +4302,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1000</v>
@@ -4472,39 +4323,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K19" s="8" t="n">
+      <c r="K19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L19" s="8" t="n">
+      <c r="L19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="M19" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N19" s="8" t="n">
+      <c r="N19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P19" s="8" t="n">
+      <c r="O19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q19" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R19" s="8" t="n">
+      <c r="Q19" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R19" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4514,16 +4365,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1000</v>
@@ -4535,39 +4386,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J20" s="7" t="n">
+      <c r="J20" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L20" s="8" t="n">
+      <c r="L20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O20" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P20" s="8" t="n">
+      <c r="O20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q20" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R20" s="8" t="n">
+      <c r="Q20" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R20" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4577,16 +4428,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1000</v>
@@ -4598,39 +4449,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I21" s="7" t="n">
+      <c r="I21" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J21" s="7" t="n">
+      <c r="J21" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K21" s="8" t="n">
+      <c r="K21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L21" s="8" t="n">
+      <c r="L21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="M21" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N21" s="8" t="n">
+      <c r="N21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O21" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P21" s="8" t="n">
+      <c r="O21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q21" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R21" s="8" t="n">
+      <c r="Q21" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4640,16 +4491,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>1000</v>
@@ -4661,39 +4512,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I22" s="7" t="n">
+      <c r="I22" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J22" s="7" t="n">
+      <c r="J22" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K22" s="8" t="n">
+      <c r="K22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L22" s="8" t="n">
+      <c r="L22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="M22" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N22" s="8" t="n">
+      <c r="N22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O22" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P22" s="8" t="n">
+      <c r="O22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q22" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R22" s="8" t="n">
+      <c r="Q22" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R22" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4703,16 +4554,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1000</v>
@@ -4724,39 +4575,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I23" s="7" t="n">
+      <c r="I23" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J23" s="7" t="n">
+      <c r="J23" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K23" s="8" t="n">
+      <c r="K23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L23" s="8" t="n">
+      <c r="L23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N23" s="8" t="n">
+      <c r="N23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O23" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P23" s="8" t="n">
+      <c r="O23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q23" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R23" s="8" t="n">
+      <c r="Q23" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R23" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4766,16 +4617,16 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1000</v>
@@ -4787,39 +4638,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J24" s="7" t="n">
+      <c r="J24" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K24" s="8" t="n">
+      <c r="K24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L24" s="8" t="n">
+      <c r="L24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P24" s="8" t="n">
+      <c r="O24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q24" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R24" s="8" t="n">
+      <c r="Q24" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R24" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4829,16 +4680,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1000</v>
@@ -4850,39 +4701,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I25" s="7" t="n">
+      <c r="I25" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J25" s="7" t="n">
+      <c r="J25" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K25" s="8" t="n">
+      <c r="K25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L25" s="8" t="n">
+      <c r="L25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M25" s="7" t="n">
+      <c r="M25" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N25" s="8" t="n">
+      <c r="N25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P25" s="8" t="n">
+      <c r="O25" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q25" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R25" s="8" t="n">
+      <c r="Q25" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R25" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4892,16 +4743,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1000</v>
@@ -4913,39 +4764,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I26" s="7" t="n">
+      <c r="I26" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J26" s="7" t="n">
+      <c r="J26" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K26" s="8" t="n">
+      <c r="K26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L26" s="8" t="n">
+      <c r="L26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M26" s="7" t="n">
+      <c r="M26" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N26" s="8" t="n">
+      <c r="N26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P26" s="8" t="n">
+      <c r="O26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q26" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R26" s="8" t="n">
+      <c r="Q26" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R26" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -4955,16 +4806,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1000</v>
@@ -4976,39 +4827,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I27" s="7" t="n">
+      <c r="I27" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J27" s="7" t="n">
+      <c r="J27" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K27" s="8" t="n">
+      <c r="K27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L27" s="8" t="n">
+      <c r="L27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M27" s="7" t="n">
+      <c r="M27" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N27" s="8" t="n">
+      <c r="N27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P27" s="8" t="n">
+      <c r="O27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q27" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R27" s="8" t="n">
+      <c r="Q27" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R27" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5018,16 +4869,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1000</v>
@@ -5039,39 +4890,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J28" s="7" t="n">
+      <c r="J28" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K28" s="8" t="n">
+      <c r="K28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L28" s="8" t="n">
+      <c r="L28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M28" s="7" t="n">
+      <c r="M28" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N28" s="8" t="n">
+      <c r="N28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O28" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P28" s="8" t="n">
+      <c r="O28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q28" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R28" s="8" t="n">
+      <c r="Q28" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R28" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5081,16 +4932,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C29" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E29" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1000</v>
@@ -5102,39 +4953,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I29" s="7" t="n">
+      <c r="I29" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J29" s="7" t="n">
+      <c r="J29" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K29" s="8" t="n">
+      <c r="K29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L29" s="8" t="n">
+      <c r="L29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M29" s="7" t="n">
+      <c r="M29" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N29" s="8" t="n">
+      <c r="N29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O29" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P29" s="8" t="n">
+      <c r="O29" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q29" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R29" s="8" t="n">
+      <c r="Q29" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R29" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5144,16 +4995,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1000</v>
@@ -5165,39 +5016,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I30" s="7" t="n">
+      <c r="I30" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J30" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L30" s="8" t="n">
+      <c r="L30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M30" s="7" t="n">
+      <c r="M30" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O30" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P30" s="8" t="n">
+      <c r="O30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q30" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R30" s="8" t="n">
+      <c r="Q30" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R30" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5207,16 +5058,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C31" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E31" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>1000</v>
@@ -5228,39 +5079,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I31" s="7" t="n">
+      <c r="I31" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J31" s="7" t="n">
+      <c r="J31" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K31" s="8" t="n">
+      <c r="K31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L31" s="8" t="n">
+      <c r="L31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M31" s="7" t="n">
+      <c r="M31" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N31" s="8" t="n">
+      <c r="N31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O31" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P31" s="8" t="n">
+      <c r="O31" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q31" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R31" s="8" t="n">
+      <c r="Q31" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R31" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5270,16 +5121,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>1000</v>
@@ -5291,39 +5142,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I32" s="7" t="n">
+      <c r="I32" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J32" s="7" t="n">
+      <c r="J32" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K32" s="8" t="n">
+      <c r="K32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L32" s="8" t="n">
+      <c r="L32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M32" s="7" t="n">
+      <c r="M32" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N32" s="8" t="n">
+      <c r="N32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O32" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P32" s="8" t="n">
+      <c r="O32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q32" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R32" s="8" t="n">
+      <c r="Q32" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R32" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5333,16 +5184,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1000</v>
@@ -5354,39 +5205,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I33" s="7" t="n">
+      <c r="I33" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J33" s="7" t="n">
+      <c r="J33" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K33" s="8" t="n">
+      <c r="K33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L33" s="8" t="n">
+      <c r="L33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M33" s="7" t="n">
+      <c r="M33" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N33" s="8" t="n">
+      <c r="N33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O33" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P33" s="8" t="n">
+      <c r="O33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q33" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R33" s="8" t="n">
+      <c r="Q33" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R33" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5396,16 +5247,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1000</v>
@@ -5417,39 +5268,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I34" s="7" t="n">
+      <c r="I34" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J34" s="7" t="n">
+      <c r="J34" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K34" s="8" t="n">
+      <c r="K34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L34" s="8" t="n">
+      <c r="L34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M34" s="7" t="n">
+      <c r="M34" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N34" s="8" t="n">
+      <c r="N34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O34" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P34" s="8" t="n">
+      <c r="O34" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q34" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R34" s="8" t="n">
+      <c r="Q34" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R34" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5459,16 +5310,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1000</v>
@@ -5480,39 +5331,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I35" s="7" t="n">
+      <c r="I35" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J35" s="7" t="n">
+      <c r="J35" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L35" s="8" t="n">
+      <c r="L35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M35" s="7" t="n">
+      <c r="M35" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N35" s="8" t="n">
+      <c r="N35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O35" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P35" s="8" t="n">
+      <c r="O35" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q35" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R35" s="8" t="n">
+      <c r="Q35" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R35" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5522,16 +5373,16 @@
         <v>35</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1000</v>
@@ -5543,39 +5394,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I36" s="7" t="n">
+      <c r="I36" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J36" s="7" t="n">
+      <c r="J36" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L36" s="8" t="n">
+      <c r="L36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M36" s="7" t="n">
+      <c r="M36" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N36" s="8" t="n">
+      <c r="N36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O36" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P36" s="8" t="n">
+      <c r="O36" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q36" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R36" s="8" t="n">
+      <c r="Q36" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R36" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5585,16 +5436,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1000</v>
@@ -5606,39 +5457,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I37" s="7" t="n">
+      <c r="I37" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J37" s="7" t="n">
+      <c r="J37" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K37" s="8" t="n">
+      <c r="K37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L37" s="8" t="n">
+      <c r="L37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M37" s="7" t="n">
+      <c r="M37" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N37" s="8" t="n">
+      <c r="N37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O37" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P37" s="8" t="n">
+      <c r="O37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q37" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R37" s="8" t="n">
+      <c r="Q37" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R37" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5648,16 +5499,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1000</v>
@@ -5669,39 +5520,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I38" s="7" t="n">
+      <c r="I38" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J38" s="7" t="n">
+      <c r="J38" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K38" s="8" t="n">
+      <c r="K38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L38" s="8" t="n">
+      <c r="L38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M38" s="7" t="n">
+      <c r="M38" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N38" s="8" t="n">
+      <c r="N38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O38" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P38" s="8" t="n">
+      <c r="O38" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q38" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R38" s="8" t="n">
+      <c r="Q38" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R38" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5711,16 +5562,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>1000</v>
@@ -5732,39 +5583,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I39" s="7" t="n">
+      <c r="I39" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J39" s="7" t="n">
+      <c r="J39" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K39" s="8" t="n">
+      <c r="K39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L39" s="8" t="n">
+      <c r="L39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M39" s="7" t="n">
+      <c r="M39" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N39" s="8" t="n">
+      <c r="N39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O39" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P39" s="8" t="n">
+      <c r="O39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q39" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R39" s="8" t="n">
+      <c r="Q39" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R39" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5774,16 +5625,16 @@
         <v>39</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>1000</v>
@@ -5795,39 +5646,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I40" s="7" t="n">
+      <c r="I40" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J40" s="7" t="n">
+      <c r="J40" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K40" s="8" t="n">
+      <c r="K40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L40" s="8" t="n">
+      <c r="L40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M40" s="7" t="n">
+      <c r="M40" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N40" s="8" t="n">
+      <c r="N40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O40" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P40" s="8" t="n">
+      <c r="O40" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q40" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R40" s="8" t="n">
+      <c r="Q40" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R40" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5837,16 +5688,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1000</v>
@@ -5858,39 +5709,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I41" s="7" t="n">
+      <c r="I41" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J41" s="7" t="n">
+      <c r="J41" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K41" s="8" t="n">
+      <c r="K41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L41" s="8" t="n">
+      <c r="L41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M41" s="7" t="n">
+      <c r="M41" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N41" s="8" t="n">
+      <c r="N41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O41" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P41" s="8" t="n">
+      <c r="O41" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q41" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R41" s="8" t="n">
+      <c r="Q41" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R41" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5900,16 +5751,16 @@
         <v>41</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1000</v>
@@ -5921,39 +5772,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I42" s="7" t="n">
+      <c r="I42" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J42" s="7" t="n">
+      <c r="J42" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K42" s="8" t="n">
+      <c r="K42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L42" s="8" t="n">
+      <c r="L42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M42" s="7" t="n">
+      <c r="M42" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N42" s="8" t="n">
+      <c r="N42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O42" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P42" s="8" t="n">
+      <c r="O42" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q42" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R42" s="8" t="n">
+      <c r="Q42" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R42" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -5963,16 +5814,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1000</v>
@@ -5984,39 +5835,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I43" s="7" t="n">
+      <c r="I43" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J43" s="7" t="n">
+      <c r="J43" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K43" s="8" t="n">
+      <c r="K43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L43" s="8" t="n">
+      <c r="L43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M43" s="7" t="n">
+      <c r="M43" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N43" s="8" t="n">
+      <c r="N43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O43" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P43" s="8" t="n">
+      <c r="O43" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q43" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R43" s="8" t="n">
+      <c r="Q43" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R43" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6026,16 +5877,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1000</v>
@@ -6047,39 +5898,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I44" s="7" t="n">
+      <c r="I44" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J44" s="7" t="n">
+      <c r="J44" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K44" s="8" t="n">
+      <c r="K44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L44" s="8" t="n">
+      <c r="L44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M44" s="7" t="n">
+      <c r="M44" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N44" s="8" t="n">
+      <c r="N44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O44" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P44" s="8" t="n">
+      <c r="O44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q44" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R44" s="8" t="n">
+      <c r="Q44" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R44" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6089,16 +5940,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1000</v>
@@ -6110,39 +5961,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I45" s="7" t="n">
+      <c r="I45" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J45" s="7" t="n">
+      <c r="J45" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L45" s="8" t="n">
+      <c r="L45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M45" s="7" t="n">
+      <c r="M45" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N45" s="8" t="n">
+      <c r="N45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O45" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P45" s="8" t="n">
+      <c r="O45" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q45" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R45" s="8" t="n">
+      <c r="Q45" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R45" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6152,16 +6003,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1000</v>
@@ -6173,39 +6024,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I46" s="7" t="n">
+      <c r="I46" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J46" s="7" t="n">
+      <c r="J46" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L46" s="8" t="n">
+      <c r="L46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M46" s="7" t="n">
+      <c r="M46" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N46" s="8" t="n">
+      <c r="N46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O46" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P46" s="8" t="n">
+      <c r="O46" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q46" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R46" s="8" t="n">
+      <c r="Q46" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R46" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6215,16 +6066,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1000</v>
@@ -6236,39 +6087,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J47" s="7" t="n">
+      <c r="J47" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K47" s="8" t="n">
+      <c r="K47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L47" s="8" t="n">
+      <c r="L47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M47" s="7" t="n">
+      <c r="M47" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N47" s="8" t="n">
+      <c r="N47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O47" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P47" s="8" t="n">
+      <c r="O47" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q47" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R47" s="8" t="n">
+      <c r="Q47" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R47" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6278,16 +6129,16 @@
         <v>47</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1000</v>
@@ -6299,39 +6150,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I48" s="7" t="n">
+      <c r="I48" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J48" s="7" t="n">
+      <c r="J48" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K48" s="8" t="n">
+      <c r="K48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L48" s="8" t="n">
+      <c r="L48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M48" s="7" t="n">
+      <c r="M48" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N48" s="8" t="n">
+      <c r="N48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O48" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P48" s="8" t="n">
+      <c r="O48" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q48" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R48" s="8" t="n">
+      <c r="Q48" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R48" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6341,16 +6192,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E49" s="0" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1000</v>
@@ -6362,39 +6213,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I49" s="7" t="n">
+      <c r="I49" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J49" s="7" t="n">
+      <c r="J49" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K49" s="8" t="n">
+      <c r="K49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L49" s="8" t="n">
+      <c r="L49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M49" s="7" t="n">
+      <c r="M49" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N49" s="8" t="n">
+      <c r="N49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O49" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P49" s="8" t="n">
+      <c r="O49" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q49" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R49" s="8" t="n">
+      <c r="Q49" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R49" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6404,16 +6255,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C50" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E50" s="0" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1000</v>
@@ -6425,39 +6276,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I50" s="7" t="n">
+      <c r="I50" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J50" s="7" t="n">
+      <c r="J50" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K50" s="8" t="n">
+      <c r="K50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L50" s="8" t="n">
+      <c r="L50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M50" s="7" t="n">
+      <c r="M50" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N50" s="8" t="n">
+      <c r="N50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O50" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P50" s="8" t="n">
+      <c r="O50" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q50" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R50" s="8" t="n">
+      <c r="Q50" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R50" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6467,16 +6318,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>84</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1000</v>
@@ -6488,39 +6339,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I51" s="7" t="n">
+      <c r="I51" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J51" s="7" t="n">
+      <c r="J51" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K51" s="8" t="n">
+      <c r="K51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L51" s="8" t="n">
+      <c r="L51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M51" s="7" t="n">
+      <c r="M51" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N51" s="8" t="n">
+      <c r="N51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O51" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P51" s="8" t="n">
+      <c r="O51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q51" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R51" s="8" t="n">
+      <c r="Q51" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R51" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6530,16 +6381,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1000</v>
@@ -6551,39 +6402,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I52" s="7" t="n">
+      <c r="I52" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J52" s="7" t="n">
+      <c r="J52" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L52" s="8" t="n">
+      <c r="L52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M52" s="7" t="n">
+      <c r="M52" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N52" s="8" t="n">
+      <c r="N52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O52" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P52" s="8" t="n">
+      <c r="O52" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q52" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R52" s="8" t="n">
+      <c r="Q52" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R52" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6593,16 +6444,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C53" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E53" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1000</v>
@@ -6614,39 +6465,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I53" s="7" t="n">
+      <c r="I53" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J53" s="7" t="n">
+      <c r="J53" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L53" s="8" t="n">
+      <c r="L53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M53" s="7" t="n">
+      <c r="M53" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N53" s="8" t="n">
+      <c r="N53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O53" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P53" s="8" t="n">
+      <c r="O53" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q53" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R53" s="8" t="n">
+      <c r="Q53" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R53" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6656,16 +6507,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C54" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E54" s="0" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>1000</v>
@@ -6677,39 +6528,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I54" s="7" t="n">
+      <c r="I54" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J54" s="7" t="n">
+      <c r="J54" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K54" s="8" t="n">
+      <c r="K54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L54" s="8" t="n">
+      <c r="L54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M54" s="7" t="n">
+      <c r="M54" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N54" s="8" t="n">
+      <c r="N54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O54" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P54" s="8" t="n">
+      <c r="O54" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q54" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R54" s="8" t="n">
+      <c r="Q54" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R54" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6719,16 +6570,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C55" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E55" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>1000</v>
@@ -6740,39 +6591,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I55" s="7" t="n">
+      <c r="I55" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J55" s="7" t="n">
+      <c r="J55" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K55" s="8" t="n">
+      <c r="K55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L55" s="8" t="n">
+      <c r="L55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M55" s="7" t="n">
+      <c r="M55" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N55" s="8" t="n">
+      <c r="N55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O55" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P55" s="8" t="n">
+      <c r="O55" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q55" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R55" s="8" t="n">
+      <c r="Q55" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R55" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6782,16 +6633,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C56" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E56" s="0" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1000</v>
@@ -6803,39 +6654,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I56" s="7" t="n">
+      <c r="I56" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J56" s="7" t="n">
+      <c r="J56" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K56" s="8" t="n">
+      <c r="K56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L56" s="8" t="n">
+      <c r="L56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M56" s="7" t="n">
+      <c r="M56" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N56" s="8" t="n">
+      <c r="N56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O56" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P56" s="8" t="n">
+      <c r="O56" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q56" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R56" s="8" t="n">
+      <c r="Q56" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R56" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6845,16 +6696,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C57" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E57" s="0" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1000</v>
@@ -6866,39 +6717,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I57" s="7" t="n">
+      <c r="I57" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J57" s="7" t="n">
+      <c r="J57" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K57" s="8" t="n">
+      <c r="K57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L57" s="8" t="n">
+      <c r="L57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M57" s="7" t="n">
+      <c r="M57" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N57" s="8" t="n">
+      <c r="N57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O57" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P57" s="8" t="n">
+      <c r="O57" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q57" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R57" s="8" t="n">
+      <c r="Q57" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R57" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6908,16 +6759,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1000</v>
@@ -6929,39 +6780,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I58" s="7" t="n">
+      <c r="I58" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J58" s="7" t="n">
+      <c r="J58" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K58" s="8" t="n">
+      <c r="K58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L58" s="8" t="n">
+      <c r="L58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M58" s="7" t="n">
+      <c r="M58" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N58" s="8" t="n">
+      <c r="N58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O58" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P58" s="8" t="n">
+      <c r="O58" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q58" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R58" s="8" t="n">
+      <c r="Q58" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R58" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -6971,16 +6822,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C59" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D59" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E59" s="0" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1000</v>
@@ -6992,39 +6843,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I59" s="7" t="n">
+      <c r="I59" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J59" s="7" t="n">
+      <c r="J59" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L59" s="8" t="n">
+      <c r="L59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M59" s="7" t="n">
+      <c r="M59" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N59" s="8" t="n">
+      <c r="N59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O59" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P59" s="8" t="n">
+      <c r="O59" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q59" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R59" s="8" t="n">
+      <c r="Q59" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R59" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7034,16 +6885,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C60" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E60" s="0" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F60" s="0" t="n">
         <v>1000</v>
@@ -7055,39 +6906,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I60" s="7" t="n">
+      <c r="I60" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J60" s="7" t="n">
+      <c r="J60" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L60" s="8" t="n">
+      <c r="L60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M60" s="7" t="n">
+      <c r="M60" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N60" s="8" t="n">
+      <c r="N60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O60" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P60" s="8" t="n">
+      <c r="O60" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q60" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R60" s="8" t="n">
+      <c r="Q60" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R60" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7097,16 +6948,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>1000</v>
@@ -7118,39 +6969,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I61" s="7" t="n">
+      <c r="I61" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J61" s="7" t="n">
+      <c r="J61" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K61" s="8" t="n">
+      <c r="K61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L61" s="8" t="n">
+      <c r="L61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M61" s="7" t="n">
+      <c r="M61" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N61" s="8" t="n">
+      <c r="N61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O61" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P61" s="8" t="n">
+      <c r="O61" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q61" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R61" s="8" t="n">
+      <c r="Q61" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R61" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7160,16 +7011,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F62" s="0" t="n">
         <v>1000</v>
@@ -7181,39 +7032,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I62" s="7" t="n">
+      <c r="I62" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J62" s="7" t="n">
+      <c r="J62" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K62" s="8" t="n">
+      <c r="K62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L62" s="8" t="n">
+      <c r="L62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M62" s="7" t="n">
+      <c r="M62" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N62" s="8" t="n">
+      <c r="N62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O62" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P62" s="8" t="n">
+      <c r="O62" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q62" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R62" s="8" t="n">
+      <c r="Q62" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R62" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7223,16 +7074,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63" s="0" t="n">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1000</v>
@@ -7244,39 +7095,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I63" s="7" t="n">
+      <c r="I63" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J63" s="7" t="n">
+      <c r="J63" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K63" s="8" t="n">
+      <c r="K63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L63" s="8" t="n">
+      <c r="L63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M63" s="7" t="n">
+      <c r="M63" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N63" s="8" t="n">
+      <c r="N63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O63" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P63" s="8" t="n">
+      <c r="O63" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q63" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R63" s="8" t="n">
+      <c r="Q63" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R63" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7286,16 +7137,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C64" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>2</v>
-      </c>
       <c r="E64" s="0" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1000</v>
@@ -7307,39 +7158,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>3000</v>
       </c>
-      <c r="I64" s="7" t="n">
+      <c r="I64" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>12000</v>
       </c>
-      <c r="J64" s="7" t="n">
+      <c r="J64" s="6" t="n">
         <v>12000000</v>
       </c>
-      <c r="K64" s="8" t="n">
+      <c r="K64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>12</v>
       </c>
-      <c r="L64" s="8" t="n">
+      <c r="L64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>86</v>
       </c>
-      <c r="M64" s="7" t="n">
+      <c r="M64" s="6" t="n">
         <v>86000</v>
       </c>
-      <c r="N64" s="8" t="n">
+      <c r="N64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.086</v>
       </c>
-      <c r="O64" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P64" s="8" t="n">
+      <c r="O64" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q64" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R64" s="8" t="n">
+      <c r="Q64" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R64" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7348,17 +7199,17 @@
       <c r="A65" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D65" s="9" t="n">
-        <v>3</v>
+      <c r="B65" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>197</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F65" s="1" t="n">
         <v>550</v>
@@ -7370,39 +7221,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I65" s="10" t="n">
+      <c r="I65" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16363.6363636364</v>
       </c>
-      <c r="J65" s="10" t="n">
+      <c r="J65" s="9" t="n">
         <v>9000000</v>
       </c>
-      <c r="K65" s="11" t="n">
+      <c r="K65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="L65" s="11" t="n">
+      <c r="L65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="M65" s="10" t="n">
+      <c r="M65" s="9" t="n">
         <v>12000</v>
       </c>
-      <c r="N65" s="11" t="n">
+      <c r="N65" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0218181818181818</v>
       </c>
-      <c r="O65" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P65" s="8" t="n">
+      <c r="O65" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P65" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q65" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R65" s="8" t="n">
+      <c r="Q65" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R65" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7411,17 +7262,17 @@
       <c r="A66" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D66" s="9" t="n">
-        <v>2</v>
+      <c r="B66" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F66" s="1" t="n">
         <v>550</v>
@@ -7433,39 +7284,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I66" s="10" t="n">
+      <c r="I66" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="J66" s="10" t="n">
+      <c r="J66" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="K66" s="11" t="n">
+      <c r="K66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="L66" s="11" t="n">
+      <c r="L66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="M66" s="10" t="n">
+      <c r="M66" s="9" t="n">
         <v>14000</v>
       </c>
-      <c r="N66" s="11" t="n">
+      <c r="N66" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="O66" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P66" s="8" t="n">
+      <c r="O66" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P66" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q66" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R66" s="8" t="n">
+      <c r="Q66" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R66" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7474,17 +7325,17 @@
       <c r="A67" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="9" t="n">
-        <v>2</v>
+      <c r="B67" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F67" s="1" t="n">
         <v>550</v>
@@ -7496,39 +7347,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I67" s="10" t="n">
+      <c r="I67" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J67" s="10" t="n">
+      <c r="J67" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K67" s="11" t="n">
+      <c r="K67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L67" s="11" t="n">
+      <c r="L67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="M67" s="10" t="n">
+      <c r="M67" s="9" t="n">
         <v>10000</v>
       </c>
-      <c r="N67" s="11" t="n">
+      <c r="N67" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0181818181818182</v>
       </c>
-      <c r="O67" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P67" s="8" t="n">
+      <c r="O67" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P67" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q67" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R67" s="8" t="n">
+      <c r="Q67" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R67" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7537,17 +7388,17 @@
       <c r="A68" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D68" s="9" t="n">
-        <v>1</v>
+      <c r="B68" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="F68" s="1" t="n">
         <v>550</v>
@@ -7559,39 +7410,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I68" s="10" t="n">
+      <c r="I68" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23636.3636363636</v>
       </c>
-      <c r="J68" s="10" t="n">
+      <c r="J68" s="9" t="n">
         <v>13000000</v>
       </c>
-      <c r="K68" s="11" t="n">
+      <c r="K68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="L68" s="11" t="n">
+      <c r="L68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20</v>
       </c>
-      <c r="M68" s="10" t="n">
+      <c r="M68" s="9" t="n">
         <v>11000</v>
       </c>
-      <c r="N68" s="11" t="n">
+      <c r="N68" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.02</v>
       </c>
-      <c r="O68" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P68" s="8" t="n">
+      <c r="O68" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P68" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q68" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R68" s="8" t="n">
+      <c r="Q68" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R68" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7600,17 +7451,17 @@
       <c r="A69" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D69" s="9" t="n">
-        <v>1</v>
+      <c r="B69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F69" s="1" t="n">
         <v>550</v>
@@ -7622,39 +7473,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I69" s="10" t="n">
+      <c r="I69" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J69" s="10" t="n">
+      <c r="J69" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="K69" s="11" t="n">
+      <c r="K69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L69" s="11" t="n">
+      <c r="L69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>16.3636363636364</v>
       </c>
-      <c r="M69" s="10" t="n">
+      <c r="M69" s="9" t="n">
         <v>9000</v>
       </c>
-      <c r="N69" s="11" t="n">
+      <c r="N69" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0163636363636364</v>
       </c>
-      <c r="O69" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P69" s="8" t="n">
+      <c r="O69" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P69" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q69" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R69" s="8" t="n">
+      <c r="Q69" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R69" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7663,17 +7514,17 @@
       <c r="A70" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D70" s="9" t="n">
-        <v>2</v>
+      <c r="B70" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="F70" s="1" t="n">
         <v>550</v>
@@ -7685,39 +7536,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I70" s="10" t="n">
+      <c r="I70" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>27272.7272727273</v>
       </c>
-      <c r="J70" s="10" t="n">
+      <c r="J70" s="9" t="n">
         <v>15000000</v>
       </c>
-      <c r="K70" s="11" t="n">
+      <c r="K70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>27.2727272727273</v>
       </c>
-      <c r="L70" s="11" t="n">
+      <c r="L70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>25.4545454545455</v>
       </c>
-      <c r="M70" s="10" t="n">
+      <c r="M70" s="9" t="n">
         <v>14000</v>
       </c>
-      <c r="N70" s="11" t="n">
+      <c r="N70" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0254545454545454</v>
       </c>
-      <c r="O70" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P70" s="8" t="n">
+      <c r="O70" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P70" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q70" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R70" s="8" t="n">
+      <c r="Q70" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R70" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7726,17 +7577,17 @@
       <c r="A71" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D71" s="9" t="n">
-        <v>2</v>
+      <c r="B71" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F71" s="1" t="n">
         <v>550</v>
@@ -7748,39 +7599,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I71" s="10" t="n">
+      <c r="I71" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>18181.8181818182</v>
       </c>
-      <c r="J71" s="10" t="n">
+      <c r="J71" s="9" t="n">
         <v>10000000</v>
       </c>
-      <c r="K71" s="11" t="n">
+      <c r="K71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>18.1818181818182</v>
       </c>
-      <c r="L71" s="11" t="n">
+      <c r="L71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>23.6363636363636</v>
       </c>
-      <c r="M71" s="10" t="n">
+      <c r="M71" s="9" t="n">
         <v>13000</v>
       </c>
-      <c r="N71" s="11" t="n">
+      <c r="N71" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.0236363636363636</v>
       </c>
-      <c r="O71" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P71" s="8" t="n">
+      <c r="O71" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P71" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q71" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R71" s="8" t="n">
+      <c r="Q71" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R71" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7789,17 +7640,17 @@
       <c r="A72" s="0" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D72" s="9" t="n">
-        <v>2</v>
+      <c r="B72" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F72" s="1" t="n">
         <v>550</v>
@@ -7811,39 +7662,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I72" s="10" t="n">
+      <c r="I72" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20909.0909090909</v>
       </c>
-      <c r="J72" s="10" t="n">
+      <c r="J72" s="9" t="n">
         <v>11500000</v>
       </c>
-      <c r="K72" s="11" t="n">
+      <c r="K72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20.9090909090909</v>
       </c>
-      <c r="L72" s="11" t="n">
+      <c r="L72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M72" s="10" t="n">
+      <c r="M72" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N72" s="11" t="n">
+      <c r="N72" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O72" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P72" s="8" t="n">
+      <c r="O72" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P72" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q72" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R72" s="8" t="n">
+      <c r="Q72" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7852,17 +7703,17 @@
       <c r="A73" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="12" t="n">
-        <v>4</v>
+      <c r="B73" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="F73" s="1" t="n">
         <v>550</v>
@@ -7874,39 +7725,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I73" s="10" t="n">
+      <c r="I73" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J73" s="10" t="n">
+      <c r="J73" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K73" s="11" t="n">
+      <c r="K73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L73" s="11" t="n">
+      <c r="L73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M73" s="10" t="n">
+      <c r="M73" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N73" s="11" t="n">
+      <c r="N73" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O73" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P73" s="8" t="n">
+      <c r="O73" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P73" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q73" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R73" s="8" t="n">
+      <c r="Q73" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R73" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7915,17 +7766,17 @@
       <c r="A74" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="9" t="n">
-        <v>4</v>
+      <c r="B74" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F74" s="1" t="n">
         <v>550</v>
@@ -7937,39 +7788,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I74" s="10" t="n">
+      <c r="I74" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J74" s="10" t="n">
+      <c r="J74" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K74" s="11" t="n">
+      <c r="K74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L74" s="11" t="n">
+      <c r="L74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M74" s="10" t="n">
+      <c r="M74" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N74" s="11" t="n">
+      <c r="N74" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O74" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P74" s="8" t="n">
+      <c r="O74" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P74" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q74" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R74" s="8" t="n">
+      <c r="Q74" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R74" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -7978,17 +7829,17 @@
       <c r="A75" s="0" t="n">
         <v>74</v>
       </c>
-      <c r="B75" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D75" s="9" t="n">
-        <v>6</v>
+      <c r="B75" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="F75" s="1" t="n">
         <v>550</v>
@@ -8000,39 +7851,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I75" s="10" t="n">
+      <c r="I75" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>22727.2727272727</v>
       </c>
-      <c r="J75" s="10" t="n">
+      <c r="J75" s="9" t="n">
         <v>12500000</v>
       </c>
-      <c r="K75" s="11" t="n">
+      <c r="K75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>22.7272727272727</v>
       </c>
-      <c r="L75" s="11" t="n">
+      <c r="L75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M75" s="10" t="n">
+      <c r="M75" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N75" s="11" t="n">
+      <c r="N75" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O75" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P75" s="8" t="n">
+      <c r="O75" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P75" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q75" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R75" s="8" t="n">
+      <c r="Q75" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R75" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8041,17 +7892,17 @@
       <c r="A76" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D76" s="9" t="n">
-        <v>3</v>
+      <c r="B76" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F76" s="1" t="n">
         <v>550</v>
@@ -8063,39 +7914,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I76" s="10" t="n">
+      <c r="I76" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>19090.9090909091</v>
       </c>
-      <c r="J76" s="10" t="n">
+      <c r="J76" s="9" t="n">
         <v>10500000</v>
       </c>
-      <c r="K76" s="11" t="n">
+      <c r="K76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>19.0909090909091</v>
       </c>
-      <c r="L76" s="11" t="n">
+      <c r="L76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M76" s="10" t="n">
+      <c r="M76" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N76" s="11" t="n">
+      <c r="N76" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O76" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P76" s="8" t="n">
+      <c r="O76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P76" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q76" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R76" s="8" t="n">
+      <c r="Q76" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R76" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8104,17 +7955,17 @@
       <c r="A77" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D77" s="9" t="n">
-        <v>4</v>
+      <c r="B77" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F77" s="1" t="n">
         <v>550</v>
@@ -8126,39 +7977,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I77" s="10" t="n">
+      <c r="I77" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J77" s="10" t="n">
+      <c r="J77" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K77" s="11" t="n">
+      <c r="K77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L77" s="11" t="n">
+      <c r="L77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M77" s="10" t="n">
+      <c r="M77" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N77" s="11" t="n">
+      <c r="N77" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O77" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P77" s="8" t="n">
+      <c r="O77" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P77" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q77" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R77" s="8" t="n">
+      <c r="Q77" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R77" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8167,17 +8018,17 @@
       <c r="A78" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D78" s="9" t="n">
-        <v>4</v>
+      <c r="B78" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="F78" s="1" t="n">
         <v>550</v>
@@ -8189,39 +8040,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I78" s="10" t="n">
+      <c r="I78" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J78" s="10" t="n">
+      <c r="J78" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K78" s="11" t="n">
+      <c r="K78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L78" s="11" t="n">
+      <c r="L78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M78" s="10" t="n">
+      <c r="M78" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N78" s="11" t="n">
+      <c r="N78" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O78" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P78" s="8" t="n">
+      <c r="O78" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P78" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q78" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R78" s="8" t="n">
+      <c r="Q78" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R78" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8230,17 +8081,17 @@
       <c r="A79" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D79" s="9" t="n">
-        <v>4</v>
+      <c r="B79" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F79" s="1" t="n">
         <v>550</v>
@@ -8252,39 +8103,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I79" s="10" t="n">
+      <c r="I79" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J79" s="10" t="n">
+      <c r="J79" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="K79" s="11" t="n">
+      <c r="K79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L79" s="11" t="n">
+      <c r="L79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M79" s="10" t="n">
+      <c r="M79" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N79" s="11" t="n">
+      <c r="N79" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O79" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P79" s="8" t="n">
+      <c r="O79" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P79" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q79" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R79" s="8" t="n">
+      <c r="Q79" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R79" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8293,17 +8144,17 @@
       <c r="A80" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="C80" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D80" s="9" t="n">
-        <v>2</v>
+      <c r="B80" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="F80" s="1" t="n">
         <v>550</v>
@@ -8315,39 +8166,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I80" s="10" t="n">
+      <c r="I80" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J80" s="10" t="n">
+      <c r="J80" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K80" s="11" t="n">
+      <c r="K80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L80" s="11" t="n">
+      <c r="L80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M80" s="10" t="n">
+      <c r="M80" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N80" s="11" t="n">
+      <c r="N80" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O80" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P80" s="8" t="n">
+      <c r="O80" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P80" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q80" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R80" s="8" t="n">
+      <c r="Q80" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R80" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8356,17 +8207,17 @@
       <c r="A81" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D81" s="9" t="n">
-        <v>2</v>
+      <c r="B81" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F81" s="1" t="n">
         <v>550</v>
@@ -8378,39 +8229,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I81" s="10" t="n">
+      <c r="I81" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>20000</v>
       </c>
-      <c r="J81" s="10" t="n">
+      <c r="J81" s="9" t="n">
         <v>11000000</v>
       </c>
-      <c r="K81" s="11" t="n">
+      <c r="K81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>20</v>
       </c>
-      <c r="L81" s="11" t="n">
+      <c r="L81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M81" s="10" t="n">
+      <c r="M81" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N81" s="11" t="n">
+      <c r="N81" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O81" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P81" s="8" t="n">
+      <c r="O81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P81" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q81" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R81" s="8" t="n">
+      <c r="Q81" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R81" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8419,17 +8270,17 @@
       <c r="A82" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="C82" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D82" s="9" t="n">
-        <v>4</v>
+      <c r="B82" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F82" s="1" t="n">
         <v>550</v>
@@ -8441,39 +8292,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>8250</v>
       </c>
-      <c r="I82" s="10" t="n">
+      <c r="I82" s="9" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>21818.1818181818</v>
       </c>
-      <c r="J82" s="10" t="n">
+      <c r="J82" s="9" t="n">
         <v>12000000</v>
       </c>
-      <c r="K82" s="11" t="n">
+      <c r="K82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>21.8181818181818</v>
       </c>
-      <c r="L82" s="11" t="n">
+      <c r="L82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>3.63636363636364</v>
       </c>
-      <c r="M82" s="10" t="n">
+      <c r="M82" s="9" t="n">
         <v>2000</v>
       </c>
-      <c r="N82" s="11" t="n">
+      <c r="N82" s="10" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>0.00363636363636364</v>
       </c>
-      <c r="O82" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="P82" s="8" t="n">
+      <c r="O82" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="P82" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>0.01</v>
       </c>
-      <c r="Q82" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="R82" s="8" t="n">
+      <c r="Q82" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>0.01</v>
       </c>
@@ -8483,16 +8334,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D83" s="0" t="n">
-        <v>30</v>
+        <v>236</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>237</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>250</v>
@@ -8504,39 +8355,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I83" s="7" t="n">
+      <c r="I83" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J83" s="7" t="n">
+      <c r="J83" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="K83" s="8" t="n">
+      <c r="K83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L83" s="8" t="n">
+      <c r="L83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M83" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N83" s="8" t="n">
+      <c r="M83" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O83" s="7" t="n">
+      <c r="O83" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="P83" s="8" t="n">
+      <c r="P83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q83" s="7" t="n">
+      <c r="Q83" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="R83" s="8" t="n">
+      <c r="R83" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8546,16 +8397,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>30</v>
+        <v>236</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>240</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>250</v>
@@ -8567,39 +8418,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I84" s="7" t="n">
+      <c r="I84" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J84" s="7" t="n">
+      <c r="J84" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="K84" s="8" t="n">
+      <c r="K84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L84" s="8" t="n">
+      <c r="L84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M84" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N84" s="8" t="n">
+      <c r="M84" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O84" s="7" t="n">
+      <c r="O84" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="P84" s="8" t="n">
+      <c r="P84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q84" s="7" t="n">
+      <c r="Q84" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="R84" s="8" t="n">
+      <c r="R84" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8609,16 +8460,16 @@
         <v>84</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="D85" s="0" t="n">
-        <v>30</v>
+        <v>236</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>243</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>250</v>
@@ -8630,39 +8481,39 @@
         <f aca="false">Table3[[#This Row],[Q (CT)]]*Table3[[#This Row],[CON]]</f>
         <v>250</v>
       </c>
-      <c r="I85" s="7" t="n">
+      <c r="I85" s="6" t="n">
         <f aca="false">Table3[[#This Row],[varct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>1800</v>
       </c>
-      <c r="J85" s="7" t="n">
+      <c r="J85" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="K85" s="8" t="n">
+      <c r="K85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[varq Rp]]/1000</f>
         <v>1.8</v>
       </c>
-      <c r="L85" s="8" t="n">
+      <c r="L85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardct Rp]]/Table3[[#This Row],[CON]]</f>
         <v>0.04</v>
       </c>
-      <c r="M85" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="N85" s="8" t="n">
+      <c r="M85" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="N85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vardq Rp]]/1000</f>
         <v>4E-005</v>
       </c>
-      <c r="O85" s="7" t="n">
+      <c r="O85" s="6" t="n">
         <v>4500</v>
       </c>
-      <c r="P85" s="8" t="n">
+      <c r="P85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[vard Rp]]/1000</f>
         <v>4.5</v>
       </c>
-      <c r="Q85" s="7" t="n">
+      <c r="Q85" s="6" t="n">
         <v>450000</v>
       </c>
-      <c r="R85" s="8" t="n">
+      <c r="R85" s="7" t="n">
         <f aca="false">Table3[[#This Row],[fix Rp]]/1000</f>
         <v>450</v>
       </c>
@@ -8692,14 +8543,14 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8735,7 +8586,7 @@
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
@@ -8746,7 +8597,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>1</v>
@@ -9399,7 +9250,7 @@
       <c r="M16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">

--- a/test/testdata3.xlsx
+++ b/test/testdata3.xlsx
@@ -736,7 +736,7 @@
     <t xml:space="preserve">truck</t>
   </si>
   <si>
-    <t xml:space="preserve">10 10 30 10 20 10 20 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30 30</t>
+    <t xml:space="preserve">40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40 40</t>
   </si>
   <si>
     <t xml:space="preserve">1 2 3 4 5 6 7 8 9 11 12 13 14 15 16 17 18 19 20 22 23 24 25 26 27 28 31 32</t>
@@ -745,7 +745,7 @@
     <t xml:space="preserve">truk KASUL</t>
   </si>
   <si>
-    <t xml:space="preserve">20 20 20 30 30 30 30 30 30 30 30 30</t>
+    <t xml:space="preserve">30 30 30 30 30 30 30 30 30 30 30 30</t>
   </si>
   <si>
     <t xml:space="preserve">21 29 30 33 34 35 36 37 38 39 40 42                </t>
@@ -1085,10 +1085,10 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N2" activeCellId="0" sqref="N2"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.42"/>
@@ -3143,17 +3143,17 @@
   </sheetPr>
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H84" activeCellId="0" sqref="H84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="65.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="65.08"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="0" width="7.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="0.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.01"/>
@@ -8543,7 +8543,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8583,10 +8583,10 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.13"/>
